--- a/23. Matrizes de Rastreabilidade (Características x SSS).xlsx
+++ b/23. Matrizes de Rastreabilidade (Características x SSS).xlsx
@@ -167,14 +167,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -184,7 +180,15 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color rgb="FF233A44"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -192,7 +196,7 @@
       <name val="Georgia"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +207,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4DD0E1"/>
         <bgColor rgb="FF4DD0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -218,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -252,15 +262,25 @@
       <left style="thin">
         <color rgb="FFD9D9D9"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -294,15 +314,17 @@
       <left style="thin">
         <color rgb="FFD9D9D9"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FFD9D9D9"/>
       </top>
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -336,12 +358,22 @@
       <left style="thin">
         <color rgb="FFD9D9D9"/>
       </left>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -350,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -363,58 +395,82 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,8 +528,13 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
+  <tableStyles count="2">
     <tableStyle count="3" pivot="0" name="Página1-style">
+      <tableStyleElement dxfId="2" type="headerRow"/>
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Página1-style 2">
       <tableStyleElement dxfId="2" type="headerRow"/>
       <tableStyleElement dxfId="3" type="firstRowStripe"/>
       <tableStyleElement dxfId="4" type="secondRowStripe"/>
@@ -487,8 +548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:Z25" displayName="Table_1" id="1">
-  <tableColumns count="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:X25" displayName="Table_1" id="1">
+  <tableColumns count="24">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
     <tableColumn name="Column3" id="3"/>
@@ -513,8 +574,6 @@
     <tableColumn name="Column22" id="22"/>
     <tableColumn name="Column23" id="23"/>
     <tableColumn name="Column24" id="24"/>
-    <tableColumn name="Column25" id="25"/>
-    <tableColumn name="Column26" id="26"/>
   </tableColumns>
   <tableStyleInfo name="Página1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
@@ -522,6 +581,16 @@
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
     </ext>
   </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y1:Z25" displayName="Table_2" id="2">
+  <tableColumns count="2">
+    <tableColumn name="C24" id="1"/>
+    <tableColumn name="C25" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Página1-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -747,3719 +816,3719 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="6" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="9"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="14"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="9"/>
+      <c r="Z3" s="14"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="11" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="9"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="14"/>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="6" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="6" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="11" t="s">
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="9"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="11" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="9"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="9"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="11" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="9"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="11" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="T12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="9"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="11" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="13" t="s">
+      <c r="W14" s="11"/>
+      <c r="X14" s="18" t="s">
         <v>26</v>
       </c>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="6" t="s">
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="11" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="9"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="6" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="14"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="11" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="9"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="11" t="s">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="W20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Z20" s="9"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="14"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="11" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="14" t="s">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="20" t="s">
         <v>26</v>
       </c>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="14"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="14"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="11" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="9"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="14"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="15" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="R24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="9"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="14"/>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="18" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="L25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="M25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="20"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="28"/>
     </row>
     <row r="26">
-      <c r="B26" s="21"/>
+      <c r="B26" s="29"/>
     </row>
     <row r="27">
-      <c r="B27" s="21"/>
+      <c r="B27" s="29"/>
     </row>
     <row r="28">
-      <c r="B28" s="21"/>
+      <c r="B28" s="29"/>
     </row>
     <row r="29">
-      <c r="B29" s="21"/>
+      <c r="B29" s="29"/>
     </row>
     <row r="30">
-      <c r="B30" s="21"/>
+      <c r="B30" s="29"/>
     </row>
     <row r="31">
-      <c r="B31" s="21"/>
+      <c r="B31" s="29"/>
     </row>
     <row r="32">
-      <c r="B32" s="21"/>
+      <c r="B32" s="29"/>
     </row>
     <row r="33">
-      <c r="B33" s="21"/>
+      <c r="B33" s="29"/>
     </row>
     <row r="34">
-      <c r="B34" s="21"/>
+      <c r="B34" s="29"/>
     </row>
     <row r="35">
-      <c r="B35" s="21"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36">
-      <c r="B36" s="21"/>
+      <c r="B36" s="29"/>
     </row>
     <row r="37">
-      <c r="B37" s="21"/>
+      <c r="B37" s="29"/>
     </row>
     <row r="38">
-      <c r="B38" s="21"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39">
-      <c r="B39" s="21"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40">
-      <c r="B40" s="21"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41">
-      <c r="B41" s="21"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42">
-      <c r="B42" s="21"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43">
-      <c r="B43" s="21"/>
+      <c r="B43" s="29"/>
     </row>
     <row r="44">
-      <c r="B44" s="21"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45">
-      <c r="B45" s="21"/>
+      <c r="B45" s="29"/>
     </row>
     <row r="46">
-      <c r="B46" s="21"/>
+      <c r="B46" s="29"/>
     </row>
     <row r="47">
-      <c r="B47" s="21"/>
+      <c r="B47" s="29"/>
     </row>
     <row r="48">
-      <c r="B48" s="21"/>
+      <c r="B48" s="29"/>
     </row>
     <row r="49">
-      <c r="B49" s="21"/>
+      <c r="B49" s="29"/>
     </row>
     <row r="50">
-      <c r="B50" s="21"/>
+      <c r="B50" s="29"/>
     </row>
     <row r="51">
-      <c r="B51" s="21"/>
+      <c r="B51" s="29"/>
     </row>
     <row r="52">
-      <c r="B52" s="21"/>
+      <c r="B52" s="29"/>
     </row>
     <row r="53">
-      <c r="B53" s="21"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54">
-      <c r="B54" s="21"/>
+      <c r="B54" s="29"/>
     </row>
     <row r="55">
-      <c r="B55" s="21"/>
+      <c r="B55" s="29"/>
     </row>
     <row r="56">
-      <c r="B56" s="21"/>
+      <c r="B56" s="29"/>
     </row>
     <row r="57">
-      <c r="B57" s="21"/>
+      <c r="B57" s="29"/>
     </row>
     <row r="58">
-      <c r="B58" s="21"/>
+      <c r="B58" s="29"/>
     </row>
     <row r="59">
-      <c r="B59" s="21"/>
+      <c r="B59" s="29"/>
     </row>
     <row r="60">
-      <c r="B60" s="21"/>
+      <c r="B60" s="29"/>
     </row>
     <row r="61">
-      <c r="B61" s="21"/>
+      <c r="B61" s="29"/>
     </row>
     <row r="62">
-      <c r="B62" s="21"/>
+      <c r="B62" s="29"/>
     </row>
     <row r="63">
-      <c r="B63" s="21"/>
+      <c r="B63" s="29"/>
     </row>
     <row r="64">
-      <c r="B64" s="21"/>
+      <c r="B64" s="29"/>
     </row>
     <row r="65">
-      <c r="B65" s="21"/>
+      <c r="B65" s="29"/>
     </row>
     <row r="66">
-      <c r="B66" s="21"/>
+      <c r="B66" s="29"/>
     </row>
     <row r="67">
-      <c r="B67" s="21"/>
+      <c r="B67" s="29"/>
     </row>
     <row r="68">
-      <c r="B68" s="21"/>
+      <c r="B68" s="29"/>
     </row>
     <row r="69">
-      <c r="B69" s="21"/>
+      <c r="B69" s="29"/>
     </row>
     <row r="70">
-      <c r="B70" s="21"/>
+      <c r="B70" s="29"/>
     </row>
     <row r="71">
-      <c r="B71" s="21"/>
+      <c r="B71" s="29"/>
     </row>
     <row r="72">
-      <c r="B72" s="21"/>
+      <c r="B72" s="29"/>
     </row>
     <row r="73">
-      <c r="B73" s="21"/>
+      <c r="B73" s="29"/>
     </row>
     <row r="74">
-      <c r="B74" s="21"/>
+      <c r="B74" s="29"/>
     </row>
     <row r="75">
-      <c r="B75" s="21"/>
+      <c r="B75" s="29"/>
     </row>
     <row r="76">
-      <c r="B76" s="21"/>
+      <c r="B76" s="29"/>
     </row>
     <row r="77">
-      <c r="B77" s="21"/>
+      <c r="B77" s="29"/>
     </row>
     <row r="78">
-      <c r="B78" s="21"/>
+      <c r="B78" s="29"/>
     </row>
     <row r="79">
-      <c r="B79" s="21"/>
+      <c r="B79" s="29"/>
     </row>
     <row r="80">
-      <c r="B80" s="21"/>
+      <c r="B80" s="29"/>
     </row>
     <row r="81">
-      <c r="B81" s="21"/>
+      <c r="B81" s="29"/>
     </row>
     <row r="82">
-      <c r="B82" s="21"/>
+      <c r="B82" s="29"/>
     </row>
     <row r="83">
-      <c r="B83" s="21"/>
+      <c r="B83" s="29"/>
     </row>
     <row r="84">
-      <c r="B84" s="21"/>
+      <c r="B84" s="29"/>
     </row>
     <row r="85">
-      <c r="B85" s="21"/>
+      <c r="B85" s="29"/>
     </row>
     <row r="86">
-      <c r="B86" s="21"/>
+      <c r="B86" s="29"/>
     </row>
     <row r="87">
-      <c r="B87" s="21"/>
+      <c r="B87" s="29"/>
     </row>
     <row r="88">
-      <c r="B88" s="21"/>
+      <c r="B88" s="29"/>
     </row>
     <row r="89">
-      <c r="B89" s="21"/>
+      <c r="B89" s="29"/>
     </row>
     <row r="90">
-      <c r="B90" s="21"/>
+      <c r="B90" s="29"/>
     </row>
     <row r="91">
-      <c r="B91" s="21"/>
+      <c r="B91" s="29"/>
     </row>
     <row r="92">
-      <c r="B92" s="21"/>
+      <c r="B92" s="29"/>
     </row>
     <row r="93">
-      <c r="B93" s="21"/>
+      <c r="B93" s="29"/>
     </row>
     <row r="94">
-      <c r="B94" s="21"/>
+      <c r="B94" s="29"/>
     </row>
     <row r="95">
-      <c r="B95" s="21"/>
+      <c r="B95" s="29"/>
     </row>
     <row r="96">
-      <c r="B96" s="21"/>
+      <c r="B96" s="29"/>
     </row>
     <row r="97">
-      <c r="B97" s="21"/>
+      <c r="B97" s="29"/>
     </row>
     <row r="98">
-      <c r="B98" s="21"/>
+      <c r="B98" s="29"/>
     </row>
     <row r="99">
-      <c r="B99" s="21"/>
+      <c r="B99" s="29"/>
     </row>
     <row r="100">
-      <c r="B100" s="21"/>
+      <c r="B100" s="29"/>
     </row>
     <row r="101">
-      <c r="B101" s="21"/>
+      <c r="B101" s="29"/>
     </row>
     <row r="102">
-      <c r="B102" s="21"/>
+      <c r="B102" s="29"/>
     </row>
     <row r="103">
-      <c r="B103" s="21"/>
+      <c r="B103" s="29"/>
     </row>
     <row r="104">
-      <c r="B104" s="21"/>
+      <c r="B104" s="29"/>
     </row>
     <row r="105">
-      <c r="B105" s="21"/>
+      <c r="B105" s="29"/>
     </row>
     <row r="106">
-      <c r="B106" s="21"/>
+      <c r="B106" s="29"/>
     </row>
     <row r="107">
-      <c r="B107" s="21"/>
+      <c r="B107" s="29"/>
     </row>
     <row r="108">
-      <c r="B108" s="21"/>
+      <c r="B108" s="29"/>
     </row>
     <row r="109">
-      <c r="B109" s="21"/>
+      <c r="B109" s="29"/>
     </row>
     <row r="110">
-      <c r="B110" s="21"/>
+      <c r="B110" s="29"/>
     </row>
     <row r="111">
-      <c r="B111" s="21"/>
+      <c r="B111" s="29"/>
     </row>
     <row r="112">
-      <c r="B112" s="21"/>
+      <c r="B112" s="29"/>
     </row>
     <row r="113">
-      <c r="B113" s="21"/>
+      <c r="B113" s="29"/>
     </row>
     <row r="114">
-      <c r="B114" s="21"/>
+      <c r="B114" s="29"/>
     </row>
     <row r="115">
-      <c r="B115" s="21"/>
+      <c r="B115" s="29"/>
     </row>
     <row r="116">
-      <c r="B116" s="21"/>
+      <c r="B116" s="29"/>
     </row>
     <row r="117">
-      <c r="B117" s="21"/>
+      <c r="B117" s="29"/>
     </row>
     <row r="118">
-      <c r="B118" s="21"/>
+      <c r="B118" s="29"/>
     </row>
     <row r="119">
-      <c r="B119" s="21"/>
+      <c r="B119" s="29"/>
     </row>
     <row r="120">
-      <c r="B120" s="21"/>
+      <c r="B120" s="29"/>
     </row>
     <row r="121">
-      <c r="B121" s="21"/>
+      <c r="B121" s="29"/>
     </row>
     <row r="122">
-      <c r="B122" s="21"/>
+      <c r="B122" s="29"/>
     </row>
     <row r="123">
-      <c r="B123" s="21"/>
+      <c r="B123" s="29"/>
     </row>
     <row r="124">
-      <c r="B124" s="21"/>
+      <c r="B124" s="29"/>
     </row>
     <row r="125">
-      <c r="B125" s="21"/>
+      <c r="B125" s="29"/>
     </row>
     <row r="126">
-      <c r="B126" s="21"/>
+      <c r="B126" s="29"/>
     </row>
     <row r="127">
-      <c r="B127" s="21"/>
+      <c r="B127" s="29"/>
     </row>
     <row r="128">
-      <c r="B128" s="21"/>
+      <c r="B128" s="29"/>
     </row>
     <row r="129">
-      <c r="B129" s="21"/>
+      <c r="B129" s="29"/>
     </row>
     <row r="130">
-      <c r="B130" s="21"/>
+      <c r="B130" s="29"/>
     </row>
     <row r="131">
-      <c r="B131" s="21"/>
+      <c r="B131" s="29"/>
     </row>
     <row r="132">
-      <c r="B132" s="21"/>
+      <c r="B132" s="29"/>
     </row>
     <row r="133">
-      <c r="B133" s="21"/>
+      <c r="B133" s="29"/>
     </row>
     <row r="134">
-      <c r="B134" s="21"/>
+      <c r="B134" s="29"/>
     </row>
     <row r="135">
-      <c r="B135" s="21"/>
+      <c r="B135" s="29"/>
     </row>
     <row r="136">
-      <c r="B136" s="21"/>
+      <c r="B136" s="29"/>
     </row>
     <row r="137">
-      <c r="B137" s="21"/>
+      <c r="B137" s="29"/>
     </row>
     <row r="138">
-      <c r="B138" s="21"/>
+      <c r="B138" s="29"/>
     </row>
     <row r="139">
-      <c r="B139" s="21"/>
+      <c r="B139" s="29"/>
     </row>
     <row r="140">
-      <c r="B140" s="21"/>
+      <c r="B140" s="29"/>
     </row>
     <row r="141">
-      <c r="B141" s="21"/>
+      <c r="B141" s="29"/>
     </row>
     <row r="142">
-      <c r="B142" s="21"/>
+      <c r="B142" s="29"/>
     </row>
     <row r="143">
-      <c r="B143" s="21"/>
+      <c r="B143" s="29"/>
     </row>
     <row r="144">
-      <c r="B144" s="21"/>
+      <c r="B144" s="29"/>
     </row>
     <row r="145">
-      <c r="B145" s="21"/>
+      <c r="B145" s="29"/>
     </row>
     <row r="146">
-      <c r="B146" s="21"/>
+      <c r="B146" s="29"/>
     </row>
     <row r="147">
-      <c r="B147" s="21"/>
+      <c r="B147" s="29"/>
     </row>
     <row r="148">
-      <c r="B148" s="21"/>
+      <c r="B148" s="29"/>
     </row>
     <row r="149">
-      <c r="B149" s="21"/>
+      <c r="B149" s="29"/>
     </row>
     <row r="150">
-      <c r="B150" s="21"/>
+      <c r="B150" s="29"/>
     </row>
     <row r="151">
-      <c r="B151" s="21"/>
+      <c r="B151" s="29"/>
     </row>
     <row r="152">
-      <c r="B152" s="21"/>
+      <c r="B152" s="29"/>
     </row>
     <row r="153">
-      <c r="B153" s="21"/>
+      <c r="B153" s="29"/>
     </row>
     <row r="154">
-      <c r="B154" s="21"/>
+      <c r="B154" s="29"/>
     </row>
     <row r="155">
-      <c r="B155" s="21"/>
+      <c r="B155" s="29"/>
     </row>
     <row r="156">
-      <c r="B156" s="21"/>
+      <c r="B156" s="29"/>
     </row>
     <row r="157">
-      <c r="B157" s="21"/>
+      <c r="B157" s="29"/>
     </row>
     <row r="158">
-      <c r="B158" s="21"/>
+      <c r="B158" s="29"/>
     </row>
     <row r="159">
-      <c r="B159" s="21"/>
+      <c r="B159" s="29"/>
     </row>
     <row r="160">
-      <c r="B160" s="21"/>
+      <c r="B160" s="29"/>
     </row>
     <row r="161">
-      <c r="B161" s="21"/>
+      <c r="B161" s="29"/>
     </row>
     <row r="162">
-      <c r="B162" s="21"/>
+      <c r="B162" s="29"/>
     </row>
     <row r="163">
-      <c r="B163" s="21"/>
+      <c r="B163" s="29"/>
     </row>
     <row r="164">
-      <c r="B164" s="21"/>
+      <c r="B164" s="29"/>
     </row>
     <row r="165">
-      <c r="B165" s="21"/>
+      <c r="B165" s="29"/>
     </row>
     <row r="166">
-      <c r="B166" s="21"/>
+      <c r="B166" s="29"/>
     </row>
     <row r="167">
-      <c r="B167" s="21"/>
+      <c r="B167" s="29"/>
     </row>
     <row r="168">
-      <c r="B168" s="21"/>
+      <c r="B168" s="29"/>
     </row>
     <row r="169">
-      <c r="B169" s="21"/>
+      <c r="B169" s="29"/>
     </row>
     <row r="170">
-      <c r="B170" s="21"/>
+      <c r="B170" s="29"/>
     </row>
     <row r="171">
-      <c r="B171" s="21"/>
+      <c r="B171" s="29"/>
     </row>
     <row r="172">
-      <c r="B172" s="21"/>
+      <c r="B172" s="29"/>
     </row>
     <row r="173">
-      <c r="B173" s="21"/>
+      <c r="B173" s="29"/>
     </row>
     <row r="174">
-      <c r="B174" s="21"/>
+      <c r="B174" s="29"/>
     </row>
     <row r="175">
-      <c r="B175" s="21"/>
+      <c r="B175" s="29"/>
     </row>
     <row r="176">
-      <c r="B176" s="21"/>
+      <c r="B176" s="29"/>
     </row>
     <row r="177">
-      <c r="B177" s="21"/>
+      <c r="B177" s="29"/>
     </row>
     <row r="178">
-      <c r="B178" s="21"/>
+      <c r="B178" s="29"/>
     </row>
     <row r="179">
-      <c r="B179" s="21"/>
+      <c r="B179" s="29"/>
     </row>
     <row r="180">
-      <c r="B180" s="21"/>
+      <c r="B180" s="29"/>
     </row>
     <row r="181">
-      <c r="B181" s="21"/>
+      <c r="B181" s="29"/>
     </row>
     <row r="182">
-      <c r="B182" s="21"/>
+      <c r="B182" s="29"/>
     </row>
     <row r="183">
-      <c r="B183" s="21"/>
+      <c r="B183" s="29"/>
     </row>
     <row r="184">
-      <c r="B184" s="21"/>
+      <c r="B184" s="29"/>
     </row>
     <row r="185">
-      <c r="B185" s="21"/>
+      <c r="B185" s="29"/>
     </row>
     <row r="186">
-      <c r="B186" s="21"/>
+      <c r="B186" s="29"/>
     </row>
     <row r="187">
-      <c r="B187" s="21"/>
+      <c r="B187" s="29"/>
     </row>
     <row r="188">
-      <c r="B188" s="21"/>
+      <c r="B188" s="29"/>
     </row>
     <row r="189">
-      <c r="B189" s="21"/>
+      <c r="B189" s="29"/>
     </row>
     <row r="190">
-      <c r="B190" s="21"/>
+      <c r="B190" s="29"/>
     </row>
     <row r="191">
-      <c r="B191" s="21"/>
+      <c r="B191" s="29"/>
     </row>
     <row r="192">
-      <c r="B192" s="21"/>
+      <c r="B192" s="29"/>
     </row>
     <row r="193">
-      <c r="B193" s="21"/>
+      <c r="B193" s="29"/>
     </row>
     <row r="194">
-      <c r="B194" s="21"/>
+      <c r="B194" s="29"/>
     </row>
     <row r="195">
-      <c r="B195" s="21"/>
+      <c r="B195" s="29"/>
     </row>
     <row r="196">
-      <c r="B196" s="21"/>
+      <c r="B196" s="29"/>
     </row>
     <row r="197">
-      <c r="B197" s="21"/>
+      <c r="B197" s="29"/>
     </row>
     <row r="198">
-      <c r="B198" s="21"/>
+      <c r="B198" s="29"/>
     </row>
     <row r="199">
-      <c r="B199" s="21"/>
+      <c r="B199" s="29"/>
     </row>
     <row r="200">
-      <c r="B200" s="21"/>
+      <c r="B200" s="29"/>
     </row>
     <row r="201">
-      <c r="B201" s="21"/>
+      <c r="B201" s="29"/>
     </row>
     <row r="202">
-      <c r="B202" s="21"/>
+      <c r="B202" s="29"/>
     </row>
     <row r="203">
-      <c r="B203" s="21"/>
+      <c r="B203" s="29"/>
     </row>
     <row r="204">
-      <c r="B204" s="21"/>
+      <c r="B204" s="29"/>
     </row>
     <row r="205">
-      <c r="B205" s="21"/>
+      <c r="B205" s="29"/>
     </row>
     <row r="206">
-      <c r="B206" s="21"/>
+      <c r="B206" s="29"/>
     </row>
     <row r="207">
-      <c r="B207" s="21"/>
+      <c r="B207" s="29"/>
     </row>
     <row r="208">
-      <c r="B208" s="21"/>
+      <c r="B208" s="29"/>
     </row>
     <row r="209">
-      <c r="B209" s="21"/>
+      <c r="B209" s="29"/>
     </row>
     <row r="210">
-      <c r="B210" s="21"/>
+      <c r="B210" s="29"/>
     </row>
     <row r="211">
-      <c r="B211" s="21"/>
+      <c r="B211" s="29"/>
     </row>
     <row r="212">
-      <c r="B212" s="21"/>
+      <c r="B212" s="29"/>
     </row>
     <row r="213">
-      <c r="B213" s="21"/>
+      <c r="B213" s="29"/>
     </row>
     <row r="214">
-      <c r="B214" s="21"/>
+      <c r="B214" s="29"/>
     </row>
     <row r="215">
-      <c r="B215" s="21"/>
+      <c r="B215" s="29"/>
     </row>
     <row r="216">
-      <c r="B216" s="21"/>
+      <c r="B216" s="29"/>
     </row>
     <row r="217">
-      <c r="B217" s="21"/>
+      <c r="B217" s="29"/>
     </row>
     <row r="218">
-      <c r="B218" s="21"/>
+      <c r="B218" s="29"/>
     </row>
     <row r="219">
-      <c r="B219" s="21"/>
+      <c r="B219" s="29"/>
     </row>
     <row r="220">
-      <c r="B220" s="21"/>
+      <c r="B220" s="29"/>
     </row>
     <row r="221">
-      <c r="B221" s="21"/>
+      <c r="B221" s="29"/>
     </row>
     <row r="222">
-      <c r="B222" s="21"/>
+      <c r="B222" s="29"/>
     </row>
     <row r="223">
-      <c r="B223" s="21"/>
+      <c r="B223" s="29"/>
     </row>
     <row r="224">
-      <c r="B224" s="21"/>
+      <c r="B224" s="29"/>
     </row>
     <row r="225">
-      <c r="B225" s="21"/>
+      <c r="B225" s="29"/>
     </row>
     <row r="226">
-      <c r="B226" s="21"/>
+      <c r="B226" s="29"/>
     </row>
     <row r="227">
-      <c r="B227" s="21"/>
+      <c r="B227" s="29"/>
     </row>
     <row r="228">
-      <c r="B228" s="21"/>
+      <c r="B228" s="29"/>
     </row>
     <row r="229">
-      <c r="B229" s="21"/>
+      <c r="B229" s="29"/>
     </row>
     <row r="230">
-      <c r="B230" s="21"/>
+      <c r="B230" s="29"/>
     </row>
     <row r="231">
-      <c r="B231" s="21"/>
+      <c r="B231" s="29"/>
     </row>
     <row r="232">
-      <c r="B232" s="21"/>
+      <c r="B232" s="29"/>
     </row>
     <row r="233">
-      <c r="B233" s="21"/>
+      <c r="B233" s="29"/>
     </row>
     <row r="234">
-      <c r="B234" s="21"/>
+      <c r="B234" s="29"/>
     </row>
     <row r="235">
-      <c r="B235" s="21"/>
+      <c r="B235" s="29"/>
     </row>
     <row r="236">
-      <c r="B236" s="21"/>
+      <c r="B236" s="29"/>
     </row>
     <row r="237">
-      <c r="B237" s="21"/>
+      <c r="B237" s="29"/>
     </row>
     <row r="238">
-      <c r="B238" s="21"/>
+      <c r="B238" s="29"/>
     </row>
     <row r="239">
-      <c r="B239" s="21"/>
+      <c r="B239" s="29"/>
     </row>
     <row r="240">
-      <c r="B240" s="21"/>
+      <c r="B240" s="29"/>
     </row>
     <row r="241">
-      <c r="B241" s="21"/>
+      <c r="B241" s="29"/>
     </row>
     <row r="242">
-      <c r="B242" s="21"/>
+      <c r="B242" s="29"/>
     </row>
     <row r="243">
-      <c r="B243" s="21"/>
+      <c r="B243" s="29"/>
     </row>
     <row r="244">
-      <c r="B244" s="21"/>
+      <c r="B244" s="29"/>
     </row>
     <row r="245">
-      <c r="B245" s="21"/>
+      <c r="B245" s="29"/>
     </row>
     <row r="246">
-      <c r="B246" s="21"/>
+      <c r="B246" s="29"/>
     </row>
     <row r="247">
-      <c r="B247" s="21"/>
+      <c r="B247" s="29"/>
     </row>
     <row r="248">
-      <c r="B248" s="21"/>
+      <c r="B248" s="29"/>
     </row>
     <row r="249">
-      <c r="B249" s="21"/>
+      <c r="B249" s="29"/>
     </row>
     <row r="250">
-      <c r="B250" s="21"/>
+      <c r="B250" s="29"/>
     </row>
     <row r="251">
-      <c r="B251" s="21"/>
+      <c r="B251" s="29"/>
     </row>
     <row r="252">
-      <c r="B252" s="21"/>
+      <c r="B252" s="29"/>
     </row>
     <row r="253">
-      <c r="B253" s="21"/>
+      <c r="B253" s="29"/>
     </row>
     <row r="254">
-      <c r="B254" s="21"/>
+      <c r="B254" s="29"/>
     </row>
     <row r="255">
-      <c r="B255" s="21"/>
+      <c r="B255" s="29"/>
     </row>
     <row r="256">
-      <c r="B256" s="21"/>
+      <c r="B256" s="29"/>
     </row>
     <row r="257">
-      <c r="B257" s="21"/>
+      <c r="B257" s="29"/>
     </row>
     <row r="258">
-      <c r="B258" s="21"/>
+      <c r="B258" s="29"/>
     </row>
     <row r="259">
-      <c r="B259" s="21"/>
+      <c r="B259" s="29"/>
     </row>
     <row r="260">
-      <c r="B260" s="21"/>
+      <c r="B260" s="29"/>
     </row>
     <row r="261">
-      <c r="B261" s="21"/>
+      <c r="B261" s="29"/>
     </row>
     <row r="262">
-      <c r="B262" s="21"/>
+      <c r="B262" s="29"/>
     </row>
     <row r="263">
-      <c r="B263" s="21"/>
+      <c r="B263" s="29"/>
     </row>
     <row r="264">
-      <c r="B264" s="21"/>
+      <c r="B264" s="29"/>
     </row>
     <row r="265">
-      <c r="B265" s="21"/>
+      <c r="B265" s="29"/>
     </row>
     <row r="266">
-      <c r="B266" s="21"/>
+      <c r="B266" s="29"/>
     </row>
     <row r="267">
-      <c r="B267" s="21"/>
+      <c r="B267" s="29"/>
     </row>
     <row r="268">
-      <c r="B268" s="21"/>
+      <c r="B268" s="29"/>
     </row>
     <row r="269">
-      <c r="B269" s="21"/>
+      <c r="B269" s="29"/>
     </row>
     <row r="270">
-      <c r="B270" s="21"/>
+      <c r="B270" s="29"/>
     </row>
     <row r="271">
-      <c r="B271" s="21"/>
+      <c r="B271" s="29"/>
     </row>
     <row r="272">
-      <c r="B272" s="21"/>
+      <c r="B272" s="29"/>
     </row>
     <row r="273">
-      <c r="B273" s="21"/>
+      <c r="B273" s="29"/>
     </row>
     <row r="274">
-      <c r="B274" s="21"/>
+      <c r="B274" s="29"/>
     </row>
     <row r="275">
-      <c r="B275" s="21"/>
+      <c r="B275" s="29"/>
     </row>
     <row r="276">
-      <c r="B276" s="21"/>
+      <c r="B276" s="29"/>
     </row>
     <row r="277">
-      <c r="B277" s="21"/>
+      <c r="B277" s="29"/>
     </row>
     <row r="278">
-      <c r="B278" s="21"/>
+      <c r="B278" s="29"/>
     </row>
     <row r="279">
-      <c r="B279" s="21"/>
+      <c r="B279" s="29"/>
     </row>
     <row r="280">
-      <c r="B280" s="21"/>
+      <c r="B280" s="29"/>
     </row>
     <row r="281">
-      <c r="B281" s="21"/>
+      <c r="B281" s="29"/>
     </row>
     <row r="282">
-      <c r="B282" s="21"/>
+      <c r="B282" s="29"/>
     </row>
     <row r="283">
-      <c r="B283" s="21"/>
+      <c r="B283" s="29"/>
     </row>
     <row r="284">
-      <c r="B284" s="21"/>
+      <c r="B284" s="29"/>
     </row>
     <row r="285">
-      <c r="B285" s="21"/>
+      <c r="B285" s="29"/>
     </row>
     <row r="286">
-      <c r="B286" s="21"/>
+      <c r="B286" s="29"/>
     </row>
     <row r="287">
-      <c r="B287" s="21"/>
+      <c r="B287" s="29"/>
     </row>
     <row r="288">
-      <c r="B288" s="21"/>
+      <c r="B288" s="29"/>
     </row>
     <row r="289">
-      <c r="B289" s="21"/>
+      <c r="B289" s="29"/>
     </row>
     <row r="290">
-      <c r="B290" s="21"/>
+      <c r="B290" s="29"/>
     </row>
     <row r="291">
-      <c r="B291" s="21"/>
+      <c r="B291" s="29"/>
     </row>
     <row r="292">
-      <c r="B292" s="21"/>
+      <c r="B292" s="29"/>
     </row>
     <row r="293">
-      <c r="B293" s="21"/>
+      <c r="B293" s="29"/>
     </row>
     <row r="294">
-      <c r="B294" s="21"/>
+      <c r="B294" s="29"/>
     </row>
     <row r="295">
-      <c r="B295" s="21"/>
+      <c r="B295" s="29"/>
     </row>
     <row r="296">
-      <c r="B296" s="21"/>
+      <c r="B296" s="29"/>
     </row>
     <row r="297">
-      <c r="B297" s="21"/>
+      <c r="B297" s="29"/>
     </row>
     <row r="298">
-      <c r="B298" s="21"/>
+      <c r="B298" s="29"/>
     </row>
     <row r="299">
-      <c r="B299" s="21"/>
+      <c r="B299" s="29"/>
     </row>
     <row r="300">
-      <c r="B300" s="21"/>
+      <c r="B300" s="29"/>
     </row>
     <row r="301">
-      <c r="B301" s="21"/>
+      <c r="B301" s="29"/>
     </row>
     <row r="302">
-      <c r="B302" s="21"/>
+      <c r="B302" s="29"/>
     </row>
     <row r="303">
-      <c r="B303" s="21"/>
+      <c r="B303" s="29"/>
     </row>
     <row r="304">
-      <c r="B304" s="21"/>
+      <c r="B304" s="29"/>
     </row>
     <row r="305">
-      <c r="B305" s="21"/>
+      <c r="B305" s="29"/>
     </row>
     <row r="306">
-      <c r="B306" s="21"/>
+      <c r="B306" s="29"/>
     </row>
     <row r="307">
-      <c r="B307" s="21"/>
+      <c r="B307" s="29"/>
     </row>
     <row r="308">
-      <c r="B308" s="21"/>
+      <c r="B308" s="29"/>
     </row>
     <row r="309">
-      <c r="B309" s="21"/>
+      <c r="B309" s="29"/>
     </row>
     <row r="310">
-      <c r="B310" s="21"/>
+      <c r="B310" s="29"/>
     </row>
     <row r="311">
-      <c r="B311" s="21"/>
+      <c r="B311" s="29"/>
     </row>
     <row r="312">
-      <c r="B312" s="21"/>
+      <c r="B312" s="29"/>
     </row>
     <row r="313">
-      <c r="B313" s="21"/>
+      <c r="B313" s="29"/>
     </row>
     <row r="314">
-      <c r="B314" s="21"/>
+      <c r="B314" s="29"/>
     </row>
     <row r="315">
-      <c r="B315" s="21"/>
+      <c r="B315" s="29"/>
     </row>
     <row r="316">
-      <c r="B316" s="21"/>
+      <c r="B316" s="29"/>
     </row>
     <row r="317">
-      <c r="B317" s="21"/>
+      <c r="B317" s="29"/>
     </row>
     <row r="318">
-      <c r="B318" s="21"/>
+      <c r="B318" s="29"/>
     </row>
     <row r="319">
-      <c r="B319" s="21"/>
+      <c r="B319" s="29"/>
     </row>
     <row r="320">
-      <c r="B320" s="21"/>
+      <c r="B320" s="29"/>
     </row>
     <row r="321">
-      <c r="B321" s="21"/>
+      <c r="B321" s="29"/>
     </row>
     <row r="322">
-      <c r="B322" s="21"/>
+      <c r="B322" s="29"/>
     </row>
     <row r="323">
-      <c r="B323" s="21"/>
+      <c r="B323" s="29"/>
     </row>
     <row r="324">
-      <c r="B324" s="21"/>
+      <c r="B324" s="29"/>
     </row>
     <row r="325">
-      <c r="B325" s="21"/>
+      <c r="B325" s="29"/>
     </row>
     <row r="326">
-      <c r="B326" s="21"/>
+      <c r="B326" s="29"/>
     </row>
     <row r="327">
-      <c r="B327" s="21"/>
+      <c r="B327" s="29"/>
     </row>
     <row r="328">
-      <c r="B328" s="21"/>
+      <c r="B328" s="29"/>
     </row>
     <row r="329">
-      <c r="B329" s="21"/>
+      <c r="B329" s="29"/>
     </row>
     <row r="330">
-      <c r="B330" s="21"/>
+      <c r="B330" s="29"/>
     </row>
     <row r="331">
-      <c r="B331" s="21"/>
+      <c r="B331" s="29"/>
     </row>
     <row r="332">
-      <c r="B332" s="21"/>
+      <c r="B332" s="29"/>
     </row>
     <row r="333">
-      <c r="B333" s="21"/>
+      <c r="B333" s="29"/>
     </row>
     <row r="334">
-      <c r="B334" s="21"/>
+      <c r="B334" s="29"/>
     </row>
     <row r="335">
-      <c r="B335" s="21"/>
+      <c r="B335" s="29"/>
     </row>
     <row r="336">
-      <c r="B336" s="21"/>
+      <c r="B336" s="29"/>
     </row>
     <row r="337">
-      <c r="B337" s="21"/>
+      <c r="B337" s="29"/>
     </row>
     <row r="338">
-      <c r="B338" s="21"/>
+      <c r="B338" s="29"/>
     </row>
     <row r="339">
-      <c r="B339" s="21"/>
+      <c r="B339" s="29"/>
     </row>
     <row r="340">
-      <c r="B340" s="21"/>
+      <c r="B340" s="29"/>
     </row>
     <row r="341">
-      <c r="B341" s="21"/>
+      <c r="B341" s="29"/>
     </row>
     <row r="342">
-      <c r="B342" s="21"/>
+      <c r="B342" s="29"/>
     </row>
     <row r="343">
-      <c r="B343" s="21"/>
+      <c r="B343" s="29"/>
     </row>
     <row r="344">
-      <c r="B344" s="21"/>
+      <c r="B344" s="29"/>
     </row>
     <row r="345">
-      <c r="B345" s="21"/>
+      <c r="B345" s="29"/>
     </row>
     <row r="346">
-      <c r="B346" s="21"/>
+      <c r="B346" s="29"/>
     </row>
     <row r="347">
-      <c r="B347" s="21"/>
+      <c r="B347" s="29"/>
     </row>
     <row r="348">
-      <c r="B348" s="21"/>
+      <c r="B348" s="29"/>
     </row>
     <row r="349">
-      <c r="B349" s="21"/>
+      <c r="B349" s="29"/>
     </row>
     <row r="350">
-      <c r="B350" s="21"/>
+      <c r="B350" s="29"/>
     </row>
     <row r="351">
-      <c r="B351" s="21"/>
+      <c r="B351" s="29"/>
     </row>
     <row r="352">
-      <c r="B352" s="21"/>
+      <c r="B352" s="29"/>
     </row>
     <row r="353">
-      <c r="B353" s="21"/>
+      <c r="B353" s="29"/>
     </row>
     <row r="354">
-      <c r="B354" s="21"/>
+      <c r="B354" s="29"/>
     </row>
     <row r="355">
-      <c r="B355" s="21"/>
+      <c r="B355" s="29"/>
     </row>
     <row r="356">
-      <c r="B356" s="21"/>
+      <c r="B356" s="29"/>
     </row>
     <row r="357">
-      <c r="B357" s="21"/>
+      <c r="B357" s="29"/>
     </row>
     <row r="358">
-      <c r="B358" s="21"/>
+      <c r="B358" s="29"/>
     </row>
     <row r="359">
-      <c r="B359" s="21"/>
+      <c r="B359" s="29"/>
     </row>
     <row r="360">
-      <c r="B360" s="21"/>
+      <c r="B360" s="29"/>
     </row>
     <row r="361">
-      <c r="B361" s="21"/>
+      <c r="B361" s="29"/>
     </row>
     <row r="362">
-      <c r="B362" s="21"/>
+      <c r="B362" s="29"/>
     </row>
     <row r="363">
-      <c r="B363" s="21"/>
+      <c r="B363" s="29"/>
     </row>
     <row r="364">
-      <c r="B364" s="21"/>
+      <c r="B364" s="29"/>
     </row>
     <row r="365">
-      <c r="B365" s="21"/>
+      <c r="B365" s="29"/>
     </row>
     <row r="366">
-      <c r="B366" s="21"/>
+      <c r="B366" s="29"/>
     </row>
     <row r="367">
-      <c r="B367" s="21"/>
+      <c r="B367" s="29"/>
     </row>
     <row r="368">
-      <c r="B368" s="21"/>
+      <c r="B368" s="29"/>
     </row>
     <row r="369">
-      <c r="B369" s="21"/>
+      <c r="B369" s="29"/>
     </row>
     <row r="370">
-      <c r="B370" s="21"/>
+      <c r="B370" s="29"/>
     </row>
     <row r="371">
-      <c r="B371" s="21"/>
+      <c r="B371" s="29"/>
     </row>
     <row r="372">
-      <c r="B372" s="21"/>
+      <c r="B372" s="29"/>
     </row>
     <row r="373">
-      <c r="B373" s="21"/>
+      <c r="B373" s="29"/>
     </row>
     <row r="374">
-      <c r="B374" s="21"/>
+      <c r="B374" s="29"/>
     </row>
     <row r="375">
-      <c r="B375" s="21"/>
+      <c r="B375" s="29"/>
     </row>
     <row r="376">
-      <c r="B376" s="21"/>
+      <c r="B376" s="29"/>
     </row>
     <row r="377">
-      <c r="B377" s="21"/>
+      <c r="B377" s="29"/>
     </row>
     <row r="378">
-      <c r="B378" s="21"/>
+      <c r="B378" s="29"/>
     </row>
     <row r="379">
-      <c r="B379" s="21"/>
+      <c r="B379" s="29"/>
     </row>
     <row r="380">
-      <c r="B380" s="21"/>
+      <c r="B380" s="29"/>
     </row>
     <row r="381">
-      <c r="B381" s="21"/>
+      <c r="B381" s="29"/>
     </row>
     <row r="382">
-      <c r="B382" s="21"/>
+      <c r="B382" s="29"/>
     </row>
     <row r="383">
-      <c r="B383" s="21"/>
+      <c r="B383" s="29"/>
     </row>
     <row r="384">
-      <c r="B384" s="21"/>
+      <c r="B384" s="29"/>
     </row>
     <row r="385">
-      <c r="B385" s="21"/>
+      <c r="B385" s="29"/>
     </row>
     <row r="386">
-      <c r="B386" s="21"/>
+      <c r="B386" s="29"/>
     </row>
     <row r="387">
-      <c r="B387" s="21"/>
+      <c r="B387" s="29"/>
     </row>
     <row r="388">
-      <c r="B388" s="21"/>
+      <c r="B388" s="29"/>
     </row>
     <row r="389">
-      <c r="B389" s="21"/>
+      <c r="B389" s="29"/>
     </row>
     <row r="390">
-      <c r="B390" s="21"/>
+      <c r="B390" s="29"/>
     </row>
     <row r="391">
-      <c r="B391" s="21"/>
+      <c r="B391" s="29"/>
     </row>
     <row r="392">
-      <c r="B392" s="21"/>
+      <c r="B392" s="29"/>
     </row>
     <row r="393">
-      <c r="B393" s="21"/>
+      <c r="B393" s="29"/>
     </row>
     <row r="394">
-      <c r="B394" s="21"/>
+      <c r="B394" s="29"/>
     </row>
     <row r="395">
-      <c r="B395" s="21"/>
+      <c r="B395" s="29"/>
     </row>
     <row r="396">
-      <c r="B396" s="21"/>
+      <c r="B396" s="29"/>
     </row>
     <row r="397">
-      <c r="B397" s="21"/>
+      <c r="B397" s="29"/>
     </row>
     <row r="398">
-      <c r="B398" s="21"/>
+      <c r="B398" s="29"/>
     </row>
     <row r="399">
-      <c r="B399" s="21"/>
+      <c r="B399" s="29"/>
     </row>
     <row r="400">
-      <c r="B400" s="21"/>
+      <c r="B400" s="29"/>
     </row>
     <row r="401">
-      <c r="B401" s="21"/>
+      <c r="B401" s="29"/>
     </row>
     <row r="402">
-      <c r="B402" s="21"/>
+      <c r="B402" s="29"/>
     </row>
     <row r="403">
-      <c r="B403" s="21"/>
+      <c r="B403" s="29"/>
     </row>
     <row r="404">
-      <c r="B404" s="21"/>
+      <c r="B404" s="29"/>
     </row>
     <row r="405">
-      <c r="B405" s="21"/>
+      <c r="B405" s="29"/>
     </row>
     <row r="406">
-      <c r="B406" s="21"/>
+      <c r="B406" s="29"/>
     </row>
     <row r="407">
-      <c r="B407" s="21"/>
+      <c r="B407" s="29"/>
     </row>
     <row r="408">
-      <c r="B408" s="21"/>
+      <c r="B408" s="29"/>
     </row>
     <row r="409">
-      <c r="B409" s="21"/>
+      <c r="B409" s="29"/>
     </row>
     <row r="410">
-      <c r="B410" s="21"/>
+      <c r="B410" s="29"/>
     </row>
     <row r="411">
-      <c r="B411" s="21"/>
+      <c r="B411" s="29"/>
     </row>
     <row r="412">
-      <c r="B412" s="21"/>
+      <c r="B412" s="29"/>
     </row>
     <row r="413">
-      <c r="B413" s="21"/>
+      <c r="B413" s="29"/>
     </row>
     <row r="414">
-      <c r="B414" s="21"/>
+      <c r="B414" s="29"/>
     </row>
     <row r="415">
-      <c r="B415" s="21"/>
+      <c r="B415" s="29"/>
     </row>
     <row r="416">
-      <c r="B416" s="21"/>
+      <c r="B416" s="29"/>
     </row>
     <row r="417">
-      <c r="B417" s="21"/>
+      <c r="B417" s="29"/>
     </row>
     <row r="418">
-      <c r="B418" s="21"/>
+      <c r="B418" s="29"/>
     </row>
     <row r="419">
-      <c r="B419" s="21"/>
+      <c r="B419" s="29"/>
     </row>
     <row r="420">
-      <c r="B420" s="21"/>
+      <c r="B420" s="29"/>
     </row>
     <row r="421">
-      <c r="B421" s="21"/>
+      <c r="B421" s="29"/>
     </row>
     <row r="422">
-      <c r="B422" s="21"/>
+      <c r="B422" s="29"/>
     </row>
     <row r="423">
-      <c r="B423" s="21"/>
+      <c r="B423" s="29"/>
     </row>
     <row r="424">
-      <c r="B424" s="21"/>
+      <c r="B424" s="29"/>
     </row>
     <row r="425">
-      <c r="B425" s="21"/>
+      <c r="B425" s="29"/>
     </row>
     <row r="426">
-      <c r="B426" s="21"/>
+      <c r="B426" s="29"/>
     </row>
     <row r="427">
-      <c r="B427" s="21"/>
+      <c r="B427" s="29"/>
     </row>
     <row r="428">
-      <c r="B428" s="21"/>
+      <c r="B428" s="29"/>
     </row>
     <row r="429">
-      <c r="B429" s="21"/>
+      <c r="B429" s="29"/>
     </row>
     <row r="430">
-      <c r="B430" s="21"/>
+      <c r="B430" s="29"/>
     </row>
     <row r="431">
-      <c r="B431" s="21"/>
+      <c r="B431" s="29"/>
     </row>
     <row r="432">
-      <c r="B432" s="21"/>
+      <c r="B432" s="29"/>
     </row>
     <row r="433">
-      <c r="B433" s="21"/>
+      <c r="B433" s="29"/>
     </row>
     <row r="434">
-      <c r="B434" s="21"/>
+      <c r="B434" s="29"/>
     </row>
     <row r="435">
-      <c r="B435" s="21"/>
+      <c r="B435" s="29"/>
     </row>
     <row r="436">
-      <c r="B436" s="21"/>
+      <c r="B436" s="29"/>
     </row>
     <row r="437">
-      <c r="B437" s="21"/>
+      <c r="B437" s="29"/>
     </row>
     <row r="438">
-      <c r="B438" s="21"/>
+      <c r="B438" s="29"/>
     </row>
     <row r="439">
-      <c r="B439" s="21"/>
+      <c r="B439" s="29"/>
     </row>
     <row r="440">
-      <c r="B440" s="21"/>
+      <c r="B440" s="29"/>
     </row>
     <row r="441">
-      <c r="B441" s="21"/>
+      <c r="B441" s="29"/>
     </row>
     <row r="442">
-      <c r="B442" s="21"/>
+      <c r="B442" s="29"/>
     </row>
     <row r="443">
-      <c r="B443" s="21"/>
+      <c r="B443" s="29"/>
     </row>
     <row r="444">
-      <c r="B444" s="21"/>
+      <c r="B444" s="29"/>
     </row>
     <row r="445">
-      <c r="B445" s="21"/>
+      <c r="B445" s="29"/>
     </row>
     <row r="446">
-      <c r="B446" s="21"/>
+      <c r="B446" s="29"/>
     </row>
     <row r="447">
-      <c r="B447" s="21"/>
+      <c r="B447" s="29"/>
     </row>
     <row r="448">
-      <c r="B448" s="21"/>
+      <c r="B448" s="29"/>
     </row>
     <row r="449">
-      <c r="B449" s="21"/>
+      <c r="B449" s="29"/>
     </row>
     <row r="450">
-      <c r="B450" s="21"/>
+      <c r="B450" s="29"/>
     </row>
     <row r="451">
-      <c r="B451" s="21"/>
+      <c r="B451" s="29"/>
     </row>
     <row r="452">
-      <c r="B452" s="21"/>
+      <c r="B452" s="29"/>
     </row>
     <row r="453">
-      <c r="B453" s="21"/>
+      <c r="B453" s="29"/>
     </row>
     <row r="454">
-      <c r="B454" s="21"/>
+      <c r="B454" s="29"/>
     </row>
     <row r="455">
-      <c r="B455" s="21"/>
+      <c r="B455" s="29"/>
     </row>
     <row r="456">
-      <c r="B456" s="21"/>
+      <c r="B456" s="29"/>
     </row>
     <row r="457">
-      <c r="B457" s="21"/>
+      <c r="B457" s="29"/>
     </row>
     <row r="458">
-      <c r="B458" s="21"/>
+      <c r="B458" s="29"/>
     </row>
     <row r="459">
-      <c r="B459" s="21"/>
+      <c r="B459" s="29"/>
     </row>
     <row r="460">
-      <c r="B460" s="21"/>
+      <c r="B460" s="29"/>
     </row>
     <row r="461">
-      <c r="B461" s="21"/>
+      <c r="B461" s="29"/>
     </row>
     <row r="462">
-      <c r="B462" s="21"/>
+      <c r="B462" s="29"/>
     </row>
     <row r="463">
-      <c r="B463" s="21"/>
+      <c r="B463" s="29"/>
     </row>
     <row r="464">
-      <c r="B464" s="21"/>
+      <c r="B464" s="29"/>
     </row>
     <row r="465">
-      <c r="B465" s="21"/>
+      <c r="B465" s="29"/>
     </row>
     <row r="466">
-      <c r="B466" s="21"/>
+      <c r="B466" s="29"/>
     </row>
     <row r="467">
-      <c r="B467" s="21"/>
+      <c r="B467" s="29"/>
     </row>
     <row r="468">
-      <c r="B468" s="21"/>
+      <c r="B468" s="29"/>
     </row>
     <row r="469">
-      <c r="B469" s="21"/>
+      <c r="B469" s="29"/>
     </row>
     <row r="470">
-      <c r="B470" s="21"/>
+      <c r="B470" s="29"/>
     </row>
     <row r="471">
-      <c r="B471" s="21"/>
+      <c r="B471" s="29"/>
     </row>
     <row r="472">
-      <c r="B472" s="21"/>
+      <c r="B472" s="29"/>
     </row>
     <row r="473">
-      <c r="B473" s="21"/>
+      <c r="B473" s="29"/>
     </row>
     <row r="474">
-      <c r="B474" s="21"/>
+      <c r="B474" s="29"/>
     </row>
     <row r="475">
-      <c r="B475" s="21"/>
+      <c r="B475" s="29"/>
     </row>
     <row r="476">
-      <c r="B476" s="21"/>
+      <c r="B476" s="29"/>
     </row>
     <row r="477">
-      <c r="B477" s="21"/>
+      <c r="B477" s="29"/>
     </row>
     <row r="478">
-      <c r="B478" s="21"/>
+      <c r="B478" s="29"/>
     </row>
     <row r="479">
-      <c r="B479" s="21"/>
+      <c r="B479" s="29"/>
     </row>
     <row r="480">
-      <c r="B480" s="21"/>
+      <c r="B480" s="29"/>
     </row>
     <row r="481">
-      <c r="B481" s="21"/>
+      <c r="B481" s="29"/>
     </row>
     <row r="482">
-      <c r="B482" s="21"/>
+      <c r="B482" s="29"/>
     </row>
     <row r="483">
-      <c r="B483" s="21"/>
+      <c r="B483" s="29"/>
     </row>
     <row r="484">
-      <c r="B484" s="21"/>
+      <c r="B484" s="29"/>
     </row>
     <row r="485">
-      <c r="B485" s="21"/>
+      <c r="B485" s="29"/>
     </row>
     <row r="486">
-      <c r="B486" s="21"/>
+      <c r="B486" s="29"/>
     </row>
     <row r="487">
-      <c r="B487" s="21"/>
+      <c r="B487" s="29"/>
     </row>
     <row r="488">
-      <c r="B488" s="21"/>
+      <c r="B488" s="29"/>
     </row>
     <row r="489">
-      <c r="B489" s="21"/>
+      <c r="B489" s="29"/>
     </row>
     <row r="490">
-      <c r="B490" s="21"/>
+      <c r="B490" s="29"/>
     </row>
     <row r="491">
-      <c r="B491" s="21"/>
+      <c r="B491" s="29"/>
     </row>
     <row r="492">
-      <c r="B492" s="21"/>
+      <c r="B492" s="29"/>
     </row>
     <row r="493">
-      <c r="B493" s="21"/>
+      <c r="B493" s="29"/>
     </row>
     <row r="494">
-      <c r="B494" s="21"/>
+      <c r="B494" s="29"/>
     </row>
     <row r="495">
-      <c r="B495" s="21"/>
+      <c r="B495" s="29"/>
     </row>
     <row r="496">
-      <c r="B496" s="21"/>
+      <c r="B496" s="29"/>
     </row>
     <row r="497">
-      <c r="B497" s="21"/>
+      <c r="B497" s="29"/>
     </row>
     <row r="498">
-      <c r="B498" s="21"/>
+      <c r="B498" s="29"/>
     </row>
     <row r="499">
-      <c r="B499" s="21"/>
+      <c r="B499" s="29"/>
     </row>
     <row r="500">
-      <c r="B500" s="21"/>
+      <c r="B500" s="29"/>
     </row>
     <row r="501">
-      <c r="B501" s="21"/>
+      <c r="B501" s="29"/>
     </row>
     <row r="502">
-      <c r="B502" s="21"/>
+      <c r="B502" s="29"/>
     </row>
     <row r="503">
-      <c r="B503" s="21"/>
+      <c r="B503" s="29"/>
     </row>
     <row r="504">
-      <c r="B504" s="21"/>
+      <c r="B504" s="29"/>
     </row>
     <row r="505">
-      <c r="B505" s="21"/>
+      <c r="B505" s="29"/>
     </row>
     <row r="506">
-      <c r="B506" s="21"/>
+      <c r="B506" s="29"/>
     </row>
     <row r="507">
-      <c r="B507" s="21"/>
+      <c r="B507" s="29"/>
     </row>
     <row r="508">
-      <c r="B508" s="21"/>
+      <c r="B508" s="29"/>
     </row>
     <row r="509">
-      <c r="B509" s="21"/>
+      <c r="B509" s="29"/>
     </row>
     <row r="510">
-      <c r="B510" s="21"/>
+      <c r="B510" s="29"/>
     </row>
     <row r="511">
-      <c r="B511" s="21"/>
+      <c r="B511" s="29"/>
     </row>
     <row r="512">
-      <c r="B512" s="21"/>
+      <c r="B512" s="29"/>
     </row>
     <row r="513">
-      <c r="B513" s="21"/>
+      <c r="B513" s="29"/>
     </row>
     <row r="514">
-      <c r="B514" s="21"/>
+      <c r="B514" s="29"/>
     </row>
     <row r="515">
-      <c r="B515" s="21"/>
+      <c r="B515" s="29"/>
     </row>
     <row r="516">
-      <c r="B516" s="21"/>
+      <c r="B516" s="29"/>
     </row>
     <row r="517">
-      <c r="B517" s="21"/>
+      <c r="B517" s="29"/>
     </row>
     <row r="518">
-      <c r="B518" s="21"/>
+      <c r="B518" s="29"/>
     </row>
     <row r="519">
-      <c r="B519" s="21"/>
+      <c r="B519" s="29"/>
     </row>
     <row r="520">
-      <c r="B520" s="21"/>
+      <c r="B520" s="29"/>
     </row>
     <row r="521">
-      <c r="B521" s="21"/>
+      <c r="B521" s="29"/>
     </row>
     <row r="522">
-      <c r="B522" s="21"/>
+      <c r="B522" s="29"/>
     </row>
     <row r="523">
-      <c r="B523" s="21"/>
+      <c r="B523" s="29"/>
     </row>
     <row r="524">
-      <c r="B524" s="21"/>
+      <c r="B524" s="29"/>
     </row>
     <row r="525">
-      <c r="B525" s="21"/>
+      <c r="B525" s="29"/>
     </row>
     <row r="526">
-      <c r="B526" s="21"/>
+      <c r="B526" s="29"/>
     </row>
     <row r="527">
-      <c r="B527" s="21"/>
+      <c r="B527" s="29"/>
     </row>
     <row r="528">
-      <c r="B528" s="21"/>
+      <c r="B528" s="29"/>
     </row>
     <row r="529">
-      <c r="B529" s="21"/>
+      <c r="B529" s="29"/>
     </row>
     <row r="530">
-      <c r="B530" s="21"/>
+      <c r="B530" s="29"/>
     </row>
     <row r="531">
-      <c r="B531" s="21"/>
+      <c r="B531" s="29"/>
     </row>
     <row r="532">
-      <c r="B532" s="21"/>
+      <c r="B532" s="29"/>
     </row>
     <row r="533">
-      <c r="B533" s="21"/>
+      <c r="B533" s="29"/>
     </row>
     <row r="534">
-      <c r="B534" s="21"/>
+      <c r="B534" s="29"/>
     </row>
     <row r="535">
-      <c r="B535" s="21"/>
+      <c r="B535" s="29"/>
     </row>
     <row r="536">
-      <c r="B536" s="21"/>
+      <c r="B536" s="29"/>
     </row>
     <row r="537">
-      <c r="B537" s="21"/>
+      <c r="B537" s="29"/>
     </row>
     <row r="538">
-      <c r="B538" s="21"/>
+      <c r="B538" s="29"/>
     </row>
     <row r="539">
-      <c r="B539" s="21"/>
+      <c r="B539" s="29"/>
     </row>
     <row r="540">
-      <c r="B540" s="21"/>
+      <c r="B540" s="29"/>
     </row>
     <row r="541">
-      <c r="B541" s="21"/>
+      <c r="B541" s="29"/>
     </row>
     <row r="542">
-      <c r="B542" s="21"/>
+      <c r="B542" s="29"/>
     </row>
     <row r="543">
-      <c r="B543" s="21"/>
+      <c r="B543" s="29"/>
     </row>
     <row r="544">
-      <c r="B544" s="21"/>
+      <c r="B544" s="29"/>
     </row>
     <row r="545">
-      <c r="B545" s="21"/>
+      <c r="B545" s="29"/>
     </row>
     <row r="546">
-      <c r="B546" s="21"/>
+      <c r="B546" s="29"/>
     </row>
     <row r="547">
-      <c r="B547" s="21"/>
+      <c r="B547" s="29"/>
     </row>
     <row r="548">
-      <c r="B548" s="21"/>
+      <c r="B548" s="29"/>
     </row>
     <row r="549">
-      <c r="B549" s="21"/>
+      <c r="B549" s="29"/>
     </row>
     <row r="550">
-      <c r="B550" s="21"/>
+      <c r="B550" s="29"/>
     </row>
     <row r="551">
-      <c r="B551" s="21"/>
+      <c r="B551" s="29"/>
     </row>
     <row r="552">
-      <c r="B552" s="21"/>
+      <c r="B552" s="29"/>
     </row>
     <row r="553">
-      <c r="B553" s="21"/>
+      <c r="B553" s="29"/>
     </row>
     <row r="554">
-      <c r="B554" s="21"/>
+      <c r="B554" s="29"/>
     </row>
     <row r="555">
-      <c r="B555" s="21"/>
+      <c r="B555" s="29"/>
     </row>
     <row r="556">
-      <c r="B556" s="21"/>
+      <c r="B556" s="29"/>
     </row>
     <row r="557">
-      <c r="B557" s="21"/>
+      <c r="B557" s="29"/>
     </row>
     <row r="558">
-      <c r="B558" s="21"/>
+      <c r="B558" s="29"/>
     </row>
     <row r="559">
-      <c r="B559" s="21"/>
+      <c r="B559" s="29"/>
     </row>
     <row r="560">
-      <c r="B560" s="21"/>
+      <c r="B560" s="29"/>
     </row>
     <row r="561">
-      <c r="B561" s="21"/>
+      <c r="B561" s="29"/>
     </row>
     <row r="562">
-      <c r="B562" s="21"/>
+      <c r="B562" s="29"/>
     </row>
     <row r="563">
-      <c r="B563" s="21"/>
+      <c r="B563" s="29"/>
     </row>
     <row r="564">
-      <c r="B564" s="21"/>
+      <c r="B564" s="29"/>
     </row>
     <row r="565">
-      <c r="B565" s="21"/>
+      <c r="B565" s="29"/>
     </row>
     <row r="566">
-      <c r="B566" s="21"/>
+      <c r="B566" s="29"/>
     </row>
     <row r="567">
-      <c r="B567" s="21"/>
+      <c r="B567" s="29"/>
     </row>
     <row r="568">
-      <c r="B568" s="21"/>
+      <c r="B568" s="29"/>
     </row>
     <row r="569">
-      <c r="B569" s="21"/>
+      <c r="B569" s="29"/>
     </row>
     <row r="570">
-      <c r="B570" s="21"/>
+      <c r="B570" s="29"/>
     </row>
     <row r="571">
-      <c r="B571" s="21"/>
+      <c r="B571" s="29"/>
     </row>
     <row r="572">
-      <c r="B572" s="21"/>
+      <c r="B572" s="29"/>
     </row>
     <row r="573">
-      <c r="B573" s="21"/>
+      <c r="B573" s="29"/>
     </row>
     <row r="574">
-      <c r="B574" s="21"/>
+      <c r="B574" s="29"/>
     </row>
     <row r="575">
-      <c r="B575" s="21"/>
+      <c r="B575" s="29"/>
     </row>
     <row r="576">
-      <c r="B576" s="21"/>
+      <c r="B576" s="29"/>
     </row>
     <row r="577">
-      <c r="B577" s="21"/>
+      <c r="B577" s="29"/>
     </row>
     <row r="578">
-      <c r="B578" s="21"/>
+      <c r="B578" s="29"/>
     </row>
     <row r="579">
-      <c r="B579" s="21"/>
+      <c r="B579" s="29"/>
     </row>
     <row r="580">
-      <c r="B580" s="21"/>
+      <c r="B580" s="29"/>
     </row>
     <row r="581">
-      <c r="B581" s="21"/>
+      <c r="B581" s="29"/>
     </row>
     <row r="582">
-      <c r="B582" s="21"/>
+      <c r="B582" s="29"/>
     </row>
     <row r="583">
-      <c r="B583" s="21"/>
+      <c r="B583" s="29"/>
     </row>
     <row r="584">
-      <c r="B584" s="21"/>
+      <c r="B584" s="29"/>
     </row>
     <row r="585">
-      <c r="B585" s="21"/>
+      <c r="B585" s="29"/>
     </row>
     <row r="586">
-      <c r="B586" s="21"/>
+      <c r="B586" s="29"/>
     </row>
     <row r="587">
-      <c r="B587" s="21"/>
+      <c r="B587" s="29"/>
     </row>
     <row r="588">
-      <c r="B588" s="21"/>
+      <c r="B588" s="29"/>
     </row>
     <row r="589">
-      <c r="B589" s="21"/>
+      <c r="B589" s="29"/>
     </row>
     <row r="590">
-      <c r="B590" s="21"/>
+      <c r="B590" s="29"/>
     </row>
     <row r="591">
-      <c r="B591" s="21"/>
+      <c r="B591" s="29"/>
     </row>
     <row r="592">
-      <c r="B592" s="21"/>
+      <c r="B592" s="29"/>
     </row>
     <row r="593">
-      <c r="B593" s="21"/>
+      <c r="B593" s="29"/>
     </row>
     <row r="594">
-      <c r="B594" s="21"/>
+      <c r="B594" s="29"/>
     </row>
     <row r="595">
-      <c r="B595" s="21"/>
+      <c r="B595" s="29"/>
     </row>
     <row r="596">
-      <c r="B596" s="21"/>
+      <c r="B596" s="29"/>
     </row>
     <row r="597">
-      <c r="B597" s="21"/>
+      <c r="B597" s="29"/>
     </row>
     <row r="598">
-      <c r="B598" s="21"/>
+      <c r="B598" s="29"/>
     </row>
     <row r="599">
-      <c r="B599" s="21"/>
+      <c r="B599" s="29"/>
     </row>
     <row r="600">
-      <c r="B600" s="21"/>
+      <c r="B600" s="29"/>
     </row>
     <row r="601">
-      <c r="B601" s="21"/>
+      <c r="B601" s="29"/>
     </row>
     <row r="602">
-      <c r="B602" s="21"/>
+      <c r="B602" s="29"/>
     </row>
     <row r="603">
-      <c r="B603" s="21"/>
+      <c r="B603" s="29"/>
     </row>
     <row r="604">
-      <c r="B604" s="21"/>
+      <c r="B604" s="29"/>
     </row>
     <row r="605">
-      <c r="B605" s="21"/>
+      <c r="B605" s="29"/>
     </row>
     <row r="606">
-      <c r="B606" s="21"/>
+      <c r="B606" s="29"/>
     </row>
     <row r="607">
-      <c r="B607" s="21"/>
+      <c r="B607" s="29"/>
     </row>
     <row r="608">
-      <c r="B608" s="21"/>
+      <c r="B608" s="29"/>
     </row>
     <row r="609">
-      <c r="B609" s="21"/>
+      <c r="B609" s="29"/>
     </row>
     <row r="610">
-      <c r="B610" s="21"/>
+      <c r="B610" s="29"/>
     </row>
     <row r="611">
-      <c r="B611" s="21"/>
+      <c r="B611" s="29"/>
     </row>
     <row r="612">
-      <c r="B612" s="21"/>
+      <c r="B612" s="29"/>
     </row>
     <row r="613">
-      <c r="B613" s="21"/>
+      <c r="B613" s="29"/>
     </row>
     <row r="614">
-      <c r="B614" s="21"/>
+      <c r="B614" s="29"/>
     </row>
     <row r="615">
-      <c r="B615" s="21"/>
+      <c r="B615" s="29"/>
     </row>
     <row r="616">
-      <c r="B616" s="21"/>
+      <c r="B616" s="29"/>
     </row>
     <row r="617">
-      <c r="B617" s="21"/>
+      <c r="B617" s="29"/>
     </row>
     <row r="618">
-      <c r="B618" s="21"/>
+      <c r="B618" s="29"/>
     </row>
     <row r="619">
-      <c r="B619" s="21"/>
+      <c r="B619" s="29"/>
     </row>
     <row r="620">
-      <c r="B620" s="21"/>
+      <c r="B620" s="29"/>
     </row>
     <row r="621">
-      <c r="B621" s="21"/>
+      <c r="B621" s="29"/>
     </row>
     <row r="622">
-      <c r="B622" s="21"/>
+      <c r="B622" s="29"/>
     </row>
     <row r="623">
-      <c r="B623" s="21"/>
+      <c r="B623" s="29"/>
     </row>
     <row r="624">
-      <c r="B624" s="21"/>
+      <c r="B624" s="29"/>
     </row>
     <row r="625">
-      <c r="B625" s="21"/>
+      <c r="B625" s="29"/>
     </row>
     <row r="626">
-      <c r="B626" s="21"/>
+      <c r="B626" s="29"/>
     </row>
     <row r="627">
-      <c r="B627" s="21"/>
+      <c r="B627" s="29"/>
     </row>
     <row r="628">
-      <c r="B628" s="21"/>
+      <c r="B628" s="29"/>
     </row>
     <row r="629">
-      <c r="B629" s="21"/>
+      <c r="B629" s="29"/>
     </row>
     <row r="630">
-      <c r="B630" s="21"/>
+      <c r="B630" s="29"/>
     </row>
     <row r="631">
-      <c r="B631" s="21"/>
+      <c r="B631" s="29"/>
     </row>
     <row r="632">
-      <c r="B632" s="21"/>
+      <c r="B632" s="29"/>
     </row>
     <row r="633">
-      <c r="B633" s="21"/>
+      <c r="B633" s="29"/>
     </row>
     <row r="634">
-      <c r="B634" s="21"/>
+      <c r="B634" s="29"/>
     </row>
     <row r="635">
-      <c r="B635" s="21"/>
+      <c r="B635" s="29"/>
     </row>
     <row r="636">
-      <c r="B636" s="21"/>
+      <c r="B636" s="29"/>
     </row>
     <row r="637">
-      <c r="B637" s="21"/>
+      <c r="B637" s="29"/>
     </row>
     <row r="638">
-      <c r="B638" s="21"/>
+      <c r="B638" s="29"/>
     </row>
     <row r="639">
-      <c r="B639" s="21"/>
+      <c r="B639" s="29"/>
     </row>
     <row r="640">
-      <c r="B640" s="21"/>
+      <c r="B640" s="29"/>
     </row>
     <row r="641">
-      <c r="B641" s="21"/>
+      <c r="B641" s="29"/>
     </row>
     <row r="642">
-      <c r="B642" s="21"/>
+      <c r="B642" s="29"/>
     </row>
     <row r="643">
-      <c r="B643" s="21"/>
+      <c r="B643" s="29"/>
     </row>
     <row r="644">
-      <c r="B644" s="21"/>
+      <c r="B644" s="29"/>
     </row>
     <row r="645">
-      <c r="B645" s="21"/>
+      <c r="B645" s="29"/>
     </row>
     <row r="646">
-      <c r="B646" s="21"/>
+      <c r="B646" s="29"/>
     </row>
     <row r="647">
-      <c r="B647" s="21"/>
+      <c r="B647" s="29"/>
     </row>
     <row r="648">
-      <c r="B648" s="21"/>
+      <c r="B648" s="29"/>
     </row>
     <row r="649">
-      <c r="B649" s="21"/>
+      <c r="B649" s="29"/>
     </row>
     <row r="650">
-      <c r="B650" s="21"/>
+      <c r="B650" s="29"/>
     </row>
     <row r="651">
-      <c r="B651" s="21"/>
+      <c r="B651" s="29"/>
     </row>
     <row r="652">
-      <c r="B652" s="21"/>
+      <c r="B652" s="29"/>
     </row>
     <row r="653">
-      <c r="B653" s="21"/>
+      <c r="B653" s="29"/>
     </row>
     <row r="654">
-      <c r="B654" s="21"/>
+      <c r="B654" s="29"/>
     </row>
     <row r="655">
-      <c r="B655" s="21"/>
+      <c r="B655" s="29"/>
     </row>
     <row r="656">
-      <c r="B656" s="21"/>
+      <c r="B656" s="29"/>
     </row>
     <row r="657">
-      <c r="B657" s="21"/>
+      <c r="B657" s="29"/>
     </row>
     <row r="658">
-      <c r="B658" s="21"/>
+      <c r="B658" s="29"/>
     </row>
     <row r="659">
-      <c r="B659" s="21"/>
+      <c r="B659" s="29"/>
     </row>
     <row r="660">
-      <c r="B660" s="21"/>
+      <c r="B660" s="29"/>
     </row>
     <row r="661">
-      <c r="B661" s="21"/>
+      <c r="B661" s="29"/>
     </row>
     <row r="662">
-      <c r="B662" s="21"/>
+      <c r="B662" s="29"/>
     </row>
     <row r="663">
-      <c r="B663" s="21"/>
+      <c r="B663" s="29"/>
     </row>
     <row r="664">
-      <c r="B664" s="21"/>
+      <c r="B664" s="29"/>
     </row>
     <row r="665">
-      <c r="B665" s="21"/>
+      <c r="B665" s="29"/>
     </row>
     <row r="666">
-      <c r="B666" s="21"/>
+      <c r="B666" s="29"/>
     </row>
     <row r="667">
-      <c r="B667" s="21"/>
+      <c r="B667" s="29"/>
     </row>
     <row r="668">
-      <c r="B668" s="21"/>
+      <c r="B668" s="29"/>
     </row>
     <row r="669">
-      <c r="B669" s="21"/>
+      <c r="B669" s="29"/>
     </row>
     <row r="670">
-      <c r="B670" s="21"/>
+      <c r="B670" s="29"/>
     </row>
     <row r="671">
-      <c r="B671" s="21"/>
+      <c r="B671" s="29"/>
     </row>
     <row r="672">
-      <c r="B672" s="21"/>
+      <c r="B672" s="29"/>
     </row>
     <row r="673">
-      <c r="B673" s="21"/>
+      <c r="B673" s="29"/>
     </row>
     <row r="674">
-      <c r="B674" s="21"/>
+      <c r="B674" s="29"/>
     </row>
     <row r="675">
-      <c r="B675" s="21"/>
+      <c r="B675" s="29"/>
     </row>
     <row r="676">
-      <c r="B676" s="21"/>
+      <c r="B676" s="29"/>
     </row>
     <row r="677">
-      <c r="B677" s="21"/>
+      <c r="B677" s="29"/>
     </row>
     <row r="678">
-      <c r="B678" s="21"/>
+      <c r="B678" s="29"/>
     </row>
     <row r="679">
-      <c r="B679" s="21"/>
+      <c r="B679" s="29"/>
     </row>
     <row r="680">
-      <c r="B680" s="21"/>
+      <c r="B680" s="29"/>
     </row>
     <row r="681">
-      <c r="B681" s="21"/>
+      <c r="B681" s="29"/>
     </row>
     <row r="682">
-      <c r="B682" s="21"/>
+      <c r="B682" s="29"/>
     </row>
     <row r="683">
-      <c r="B683" s="21"/>
+      <c r="B683" s="29"/>
     </row>
     <row r="684">
-      <c r="B684" s="21"/>
+      <c r="B684" s="29"/>
     </row>
     <row r="685">
-      <c r="B685" s="21"/>
+      <c r="B685" s="29"/>
     </row>
     <row r="686">
-      <c r="B686" s="21"/>
+      <c r="B686" s="29"/>
     </row>
     <row r="687">
-      <c r="B687" s="21"/>
+      <c r="B687" s="29"/>
     </row>
     <row r="688">
-      <c r="B688" s="21"/>
+      <c r="B688" s="29"/>
     </row>
     <row r="689">
-      <c r="B689" s="21"/>
+      <c r="B689" s="29"/>
     </row>
     <row r="690">
-      <c r="B690" s="21"/>
+      <c r="B690" s="29"/>
     </row>
     <row r="691">
-      <c r="B691" s="21"/>
+      <c r="B691" s="29"/>
     </row>
     <row r="692">
-      <c r="B692" s="21"/>
+      <c r="B692" s="29"/>
     </row>
     <row r="693">
-      <c r="B693" s="21"/>
+      <c r="B693" s="29"/>
     </row>
     <row r="694">
-      <c r="B694" s="21"/>
+      <c r="B694" s="29"/>
     </row>
     <row r="695">
-      <c r="B695" s="21"/>
+      <c r="B695" s="29"/>
     </row>
     <row r="696">
-      <c r="B696" s="21"/>
+      <c r="B696" s="29"/>
     </row>
     <row r="697">
-      <c r="B697" s="21"/>
+      <c r="B697" s="29"/>
     </row>
     <row r="698">
-      <c r="B698" s="21"/>
+      <c r="B698" s="29"/>
     </row>
     <row r="699">
-      <c r="B699" s="21"/>
+      <c r="B699" s="29"/>
     </row>
     <row r="700">
-      <c r="B700" s="21"/>
+      <c r="B700" s="29"/>
     </row>
     <row r="701">
-      <c r="B701" s="21"/>
+      <c r="B701" s="29"/>
     </row>
     <row r="702">
-      <c r="B702" s="21"/>
+      <c r="B702" s="29"/>
     </row>
     <row r="703">
-      <c r="B703" s="21"/>
+      <c r="B703" s="29"/>
     </row>
     <row r="704">
-      <c r="B704" s="21"/>
+      <c r="B704" s="29"/>
     </row>
     <row r="705">
-      <c r="B705" s="21"/>
+      <c r="B705" s="29"/>
     </row>
     <row r="706">
-      <c r="B706" s="21"/>
+      <c r="B706" s="29"/>
     </row>
     <row r="707">
-      <c r="B707" s="21"/>
+      <c r="B707" s="29"/>
     </row>
     <row r="708">
-      <c r="B708" s="21"/>
+      <c r="B708" s="29"/>
     </row>
     <row r="709">
-      <c r="B709" s="21"/>
+      <c r="B709" s="29"/>
     </row>
     <row r="710">
-      <c r="B710" s="21"/>
+      <c r="B710" s="29"/>
     </row>
     <row r="711">
-      <c r="B711" s="21"/>
+      <c r="B711" s="29"/>
     </row>
     <row r="712">
-      <c r="B712" s="21"/>
+      <c r="B712" s="29"/>
     </row>
     <row r="713">
-      <c r="B713" s="21"/>
+      <c r="B713" s="29"/>
     </row>
     <row r="714">
-      <c r="B714" s="21"/>
+      <c r="B714" s="29"/>
     </row>
     <row r="715">
-      <c r="B715" s="21"/>
+      <c r="B715" s="29"/>
     </row>
     <row r="716">
-      <c r="B716" s="21"/>
+      <c r="B716" s="29"/>
     </row>
     <row r="717">
-      <c r="B717" s="21"/>
+      <c r="B717" s="29"/>
     </row>
     <row r="718">
-      <c r="B718" s="21"/>
+      <c r="B718" s="29"/>
     </row>
     <row r="719">
-      <c r="B719" s="21"/>
+      <c r="B719" s="29"/>
     </row>
     <row r="720">
-      <c r="B720" s="21"/>
+      <c r="B720" s="29"/>
     </row>
     <row r="721">
-      <c r="B721" s="21"/>
+      <c r="B721" s="29"/>
     </row>
     <row r="722">
-      <c r="B722" s="21"/>
+      <c r="B722" s="29"/>
     </row>
     <row r="723">
-      <c r="B723" s="21"/>
+      <c r="B723" s="29"/>
     </row>
     <row r="724">
-      <c r="B724" s="21"/>
+      <c r="B724" s="29"/>
     </row>
     <row r="725">
-      <c r="B725" s="21"/>
+      <c r="B725" s="29"/>
     </row>
     <row r="726">
-      <c r="B726" s="21"/>
+      <c r="B726" s="29"/>
     </row>
     <row r="727">
-      <c r="B727" s="21"/>
+      <c r="B727" s="29"/>
     </row>
     <row r="728">
-      <c r="B728" s="21"/>
+      <c r="B728" s="29"/>
     </row>
     <row r="729">
-      <c r="B729" s="21"/>
+      <c r="B729" s="29"/>
     </row>
     <row r="730">
-      <c r="B730" s="21"/>
+      <c r="B730" s="29"/>
     </row>
     <row r="731">
-      <c r="B731" s="21"/>
+      <c r="B731" s="29"/>
     </row>
     <row r="732">
-      <c r="B732" s="21"/>
+      <c r="B732" s="29"/>
     </row>
     <row r="733">
-      <c r="B733" s="21"/>
+      <c r="B733" s="29"/>
     </row>
     <row r="734">
-      <c r="B734" s="21"/>
+      <c r="B734" s="29"/>
     </row>
     <row r="735">
-      <c r="B735" s="21"/>
+      <c r="B735" s="29"/>
     </row>
     <row r="736">
-      <c r="B736" s="21"/>
+      <c r="B736" s="29"/>
     </row>
     <row r="737">
-      <c r="B737" s="21"/>
+      <c r="B737" s="29"/>
     </row>
     <row r="738">
-      <c r="B738" s="21"/>
+      <c r="B738" s="29"/>
     </row>
     <row r="739">
-      <c r="B739" s="21"/>
+      <c r="B739" s="29"/>
     </row>
     <row r="740">
-      <c r="B740" s="21"/>
+      <c r="B740" s="29"/>
     </row>
     <row r="741">
-      <c r="B741" s="21"/>
+      <c r="B741" s="29"/>
     </row>
     <row r="742">
-      <c r="B742" s="21"/>
+      <c r="B742" s="29"/>
     </row>
     <row r="743">
-      <c r="B743" s="21"/>
+      <c r="B743" s="29"/>
     </row>
     <row r="744">
-      <c r="B744" s="21"/>
+      <c r="B744" s="29"/>
     </row>
     <row r="745">
-      <c r="B745" s="21"/>
+      <c r="B745" s="29"/>
     </row>
     <row r="746">
-      <c r="B746" s="21"/>
+      <c r="B746" s="29"/>
     </row>
     <row r="747">
-      <c r="B747" s="21"/>
+      <c r="B747" s="29"/>
     </row>
     <row r="748">
-      <c r="B748" s="21"/>
+      <c r="B748" s="29"/>
     </row>
     <row r="749">
-      <c r="B749" s="21"/>
+      <c r="B749" s="29"/>
     </row>
     <row r="750">
-      <c r="B750" s="21"/>
+      <c r="B750" s="29"/>
     </row>
     <row r="751">
-      <c r="B751" s="21"/>
+      <c r="B751" s="29"/>
     </row>
     <row r="752">
-      <c r="B752" s="21"/>
+      <c r="B752" s="29"/>
     </row>
     <row r="753">
-      <c r="B753" s="21"/>
+      <c r="B753" s="29"/>
     </row>
     <row r="754">
-      <c r="B754" s="21"/>
+      <c r="B754" s="29"/>
     </row>
     <row r="755">
-      <c r="B755" s="21"/>
+      <c r="B755" s="29"/>
     </row>
     <row r="756">
-      <c r="B756" s="21"/>
+      <c r="B756" s="29"/>
     </row>
     <row r="757">
-      <c r="B757" s="21"/>
+      <c r="B757" s="29"/>
     </row>
     <row r="758">
-      <c r="B758" s="21"/>
+      <c r="B758" s="29"/>
     </row>
     <row r="759">
-      <c r="B759" s="21"/>
+      <c r="B759" s="29"/>
     </row>
     <row r="760">
-      <c r="B760" s="21"/>
+      <c r="B760" s="29"/>
     </row>
     <row r="761">
-      <c r="B761" s="21"/>
+      <c r="B761" s="29"/>
     </row>
     <row r="762">
-      <c r="B762" s="21"/>
+      <c r="B762" s="29"/>
     </row>
     <row r="763">
-      <c r="B763" s="21"/>
+      <c r="B763" s="29"/>
     </row>
     <row r="764">
-      <c r="B764" s="21"/>
+      <c r="B764" s="29"/>
     </row>
     <row r="765">
-      <c r="B765" s="21"/>
+      <c r="B765" s="29"/>
     </row>
     <row r="766">
-      <c r="B766" s="21"/>
+      <c r="B766" s="29"/>
     </row>
     <row r="767">
-      <c r="B767" s="21"/>
+      <c r="B767" s="29"/>
     </row>
     <row r="768">
-      <c r="B768" s="21"/>
+      <c r="B768" s="29"/>
     </row>
     <row r="769">
-      <c r="B769" s="21"/>
+      <c r="B769" s="29"/>
     </row>
     <row r="770">
-      <c r="B770" s="21"/>
+      <c r="B770" s="29"/>
     </row>
     <row r="771">
-      <c r="B771" s="21"/>
+      <c r="B771" s="29"/>
     </row>
     <row r="772">
-      <c r="B772" s="21"/>
+      <c r="B772" s="29"/>
     </row>
     <row r="773">
-      <c r="B773" s="21"/>
+      <c r="B773" s="29"/>
     </row>
     <row r="774">
-      <c r="B774" s="21"/>
+      <c r="B774" s="29"/>
     </row>
     <row r="775">
-      <c r="B775" s="21"/>
+      <c r="B775" s="29"/>
     </row>
     <row r="776">
-      <c r="B776" s="21"/>
+      <c r="B776" s="29"/>
     </row>
     <row r="777">
-      <c r="B777" s="21"/>
+      <c r="B777" s="29"/>
     </row>
     <row r="778">
-      <c r="B778" s="21"/>
+      <c r="B778" s="29"/>
     </row>
     <row r="779">
-      <c r="B779" s="21"/>
+      <c r="B779" s="29"/>
     </row>
     <row r="780">
-      <c r="B780" s="21"/>
+      <c r="B780" s="29"/>
     </row>
     <row r="781">
-      <c r="B781" s="21"/>
+      <c r="B781" s="29"/>
     </row>
     <row r="782">
-      <c r="B782" s="21"/>
+      <c r="B782" s="29"/>
     </row>
     <row r="783">
-      <c r="B783" s="21"/>
+      <c r="B783" s="29"/>
     </row>
     <row r="784">
-      <c r="B784" s="21"/>
+      <c r="B784" s="29"/>
     </row>
     <row r="785">
-      <c r="B785" s="21"/>
+      <c r="B785" s="29"/>
     </row>
     <row r="786">
-      <c r="B786" s="21"/>
+      <c r="B786" s="29"/>
     </row>
     <row r="787">
-      <c r="B787" s="21"/>
+      <c r="B787" s="29"/>
     </row>
     <row r="788">
-      <c r="B788" s="21"/>
+      <c r="B788" s="29"/>
     </row>
     <row r="789">
-      <c r="B789" s="21"/>
+      <c r="B789" s="29"/>
     </row>
     <row r="790">
-      <c r="B790" s="21"/>
+      <c r="B790" s="29"/>
     </row>
     <row r="791">
-      <c r="B791" s="21"/>
+      <c r="B791" s="29"/>
     </row>
     <row r="792">
-      <c r="B792" s="21"/>
+      <c r="B792" s="29"/>
     </row>
     <row r="793">
-      <c r="B793" s="21"/>
+      <c r="B793" s="29"/>
     </row>
     <row r="794">
-      <c r="B794" s="21"/>
+      <c r="B794" s="29"/>
     </row>
     <row r="795">
-      <c r="B795" s="21"/>
+      <c r="B795" s="29"/>
     </row>
     <row r="796">
-      <c r="B796" s="21"/>
+      <c r="B796" s="29"/>
     </row>
     <row r="797">
-      <c r="B797" s="21"/>
+      <c r="B797" s="29"/>
     </row>
     <row r="798">
-      <c r="B798" s="21"/>
+      <c r="B798" s="29"/>
     </row>
     <row r="799">
-      <c r="B799" s="21"/>
+      <c r="B799" s="29"/>
     </row>
     <row r="800">
-      <c r="B800" s="21"/>
+      <c r="B800" s="29"/>
     </row>
     <row r="801">
-      <c r="B801" s="21"/>
+      <c r="B801" s="29"/>
     </row>
     <row r="802">
-      <c r="B802" s="21"/>
+      <c r="B802" s="29"/>
     </row>
     <row r="803">
-      <c r="B803" s="21"/>
+      <c r="B803" s="29"/>
     </row>
     <row r="804">
-      <c r="B804" s="21"/>
+      <c r="B804" s="29"/>
     </row>
     <row r="805">
-      <c r="B805" s="21"/>
+      <c r="B805" s="29"/>
     </row>
     <row r="806">
-      <c r="B806" s="21"/>
+      <c r="B806" s="29"/>
     </row>
     <row r="807">
-      <c r="B807" s="21"/>
+      <c r="B807" s="29"/>
     </row>
     <row r="808">
-      <c r="B808" s="21"/>
+      <c r="B808" s="29"/>
     </row>
     <row r="809">
-      <c r="B809" s="21"/>
+      <c r="B809" s="29"/>
     </row>
     <row r="810">
-      <c r="B810" s="21"/>
+      <c r="B810" s="29"/>
     </row>
     <row r="811">
-      <c r="B811" s="21"/>
+      <c r="B811" s="29"/>
     </row>
     <row r="812">
-      <c r="B812" s="21"/>
+      <c r="B812" s="29"/>
     </row>
     <row r="813">
-      <c r="B813" s="21"/>
+      <c r="B813" s="29"/>
     </row>
     <row r="814">
-      <c r="B814" s="21"/>
+      <c r="B814" s="29"/>
     </row>
     <row r="815">
-      <c r="B815" s="21"/>
+      <c r="B815" s="29"/>
     </row>
     <row r="816">
-      <c r="B816" s="21"/>
+      <c r="B816" s="29"/>
     </row>
     <row r="817">
-      <c r="B817" s="21"/>
+      <c r="B817" s="29"/>
     </row>
     <row r="818">
-      <c r="B818" s="21"/>
+      <c r="B818" s="29"/>
     </row>
     <row r="819">
-      <c r="B819" s="21"/>
+      <c r="B819" s="29"/>
     </row>
     <row r="820">
-      <c r="B820" s="21"/>
+      <c r="B820" s="29"/>
     </row>
     <row r="821">
-      <c r="B821" s="21"/>
+      <c r="B821" s="29"/>
     </row>
     <row r="822">
-      <c r="B822" s="21"/>
+      <c r="B822" s="29"/>
     </row>
     <row r="823">
-      <c r="B823" s="21"/>
+      <c r="B823" s="29"/>
     </row>
     <row r="824">
-      <c r="B824" s="21"/>
+      <c r="B824" s="29"/>
     </row>
     <row r="825">
-      <c r="B825" s="21"/>
+      <c r="B825" s="29"/>
     </row>
     <row r="826">
-      <c r="B826" s="21"/>
+      <c r="B826" s="29"/>
     </row>
     <row r="827">
-      <c r="B827" s="21"/>
+      <c r="B827" s="29"/>
     </row>
     <row r="828">
-      <c r="B828" s="21"/>
+      <c r="B828" s="29"/>
     </row>
     <row r="829">
-      <c r="B829" s="21"/>
+      <c r="B829" s="29"/>
     </row>
     <row r="830">
-      <c r="B830" s="21"/>
+      <c r="B830" s="29"/>
     </row>
     <row r="831">
-      <c r="B831" s="21"/>
+      <c r="B831" s="29"/>
     </row>
     <row r="832">
-      <c r="B832" s="21"/>
+      <c r="B832" s="29"/>
     </row>
     <row r="833">
-      <c r="B833" s="21"/>
+      <c r="B833" s="29"/>
     </row>
     <row r="834">
-      <c r="B834" s="21"/>
+      <c r="B834" s="29"/>
     </row>
     <row r="835">
-      <c r="B835" s="21"/>
+      <c r="B835" s="29"/>
     </row>
     <row r="836">
-      <c r="B836" s="21"/>
+      <c r="B836" s="29"/>
     </row>
     <row r="837">
-      <c r="B837" s="21"/>
+      <c r="B837" s="29"/>
     </row>
     <row r="838">
-      <c r="B838" s="21"/>
+      <c r="B838" s="29"/>
     </row>
     <row r="839">
-      <c r="B839" s="21"/>
+      <c r="B839" s="29"/>
     </row>
     <row r="840">
-      <c r="B840" s="21"/>
+      <c r="B840" s="29"/>
     </row>
     <row r="841">
-      <c r="B841" s="21"/>
+      <c r="B841" s="29"/>
     </row>
     <row r="842">
-      <c r="B842" s="21"/>
+      <c r="B842" s="29"/>
     </row>
     <row r="843">
-      <c r="B843" s="21"/>
+      <c r="B843" s="29"/>
     </row>
     <row r="844">
-      <c r="B844" s="21"/>
+      <c r="B844" s="29"/>
     </row>
     <row r="845">
-      <c r="B845" s="21"/>
+      <c r="B845" s="29"/>
     </row>
     <row r="846">
-      <c r="B846" s="21"/>
+      <c r="B846" s="29"/>
     </row>
     <row r="847">
-      <c r="B847" s="21"/>
+      <c r="B847" s="29"/>
     </row>
     <row r="848">
-      <c r="B848" s="21"/>
+      <c r="B848" s="29"/>
     </row>
     <row r="849">
-      <c r="B849" s="21"/>
+      <c r="B849" s="29"/>
     </row>
     <row r="850">
-      <c r="B850" s="21"/>
+      <c r="B850" s="29"/>
     </row>
     <row r="851">
-      <c r="B851" s="21"/>
+      <c r="B851" s="29"/>
     </row>
     <row r="852">
-      <c r="B852" s="21"/>
+      <c r="B852" s="29"/>
     </row>
     <row r="853">
-      <c r="B853" s="21"/>
+      <c r="B853" s="29"/>
     </row>
     <row r="854">
-      <c r="B854" s="21"/>
+      <c r="B854" s="29"/>
     </row>
     <row r="855">
-      <c r="B855" s="21"/>
+      <c r="B855" s="29"/>
     </row>
     <row r="856">
-      <c r="B856" s="21"/>
+      <c r="B856" s="29"/>
     </row>
     <row r="857">
-      <c r="B857" s="21"/>
+      <c r="B857" s="29"/>
     </row>
     <row r="858">
-      <c r="B858" s="21"/>
+      <c r="B858" s="29"/>
     </row>
     <row r="859">
-      <c r="B859" s="21"/>
+      <c r="B859" s="29"/>
     </row>
     <row r="860">
-      <c r="B860" s="21"/>
+      <c r="B860" s="29"/>
     </row>
     <row r="861">
-      <c r="B861" s="21"/>
+      <c r="B861" s="29"/>
     </row>
     <row r="862">
-      <c r="B862" s="21"/>
+      <c r="B862" s="29"/>
     </row>
     <row r="863">
-      <c r="B863" s="21"/>
+      <c r="B863" s="29"/>
     </row>
     <row r="864">
-      <c r="B864" s="21"/>
+      <c r="B864" s="29"/>
     </row>
     <row r="865">
-      <c r="B865" s="21"/>
+      <c r="B865" s="29"/>
     </row>
     <row r="866">
-      <c r="B866" s="21"/>
+      <c r="B866" s="29"/>
     </row>
     <row r="867">
-      <c r="B867" s="21"/>
+      <c r="B867" s="29"/>
     </row>
     <row r="868">
-      <c r="B868" s="21"/>
+      <c r="B868" s="29"/>
     </row>
     <row r="869">
-      <c r="B869" s="21"/>
+      <c r="B869" s="29"/>
     </row>
     <row r="870">
-      <c r="B870" s="21"/>
+      <c r="B870" s="29"/>
     </row>
     <row r="871">
-      <c r="B871" s="21"/>
+      <c r="B871" s="29"/>
     </row>
     <row r="872">
-      <c r="B872" s="21"/>
+      <c r="B872" s="29"/>
     </row>
     <row r="873">
-      <c r="B873" s="21"/>
+      <c r="B873" s="29"/>
     </row>
     <row r="874">
-      <c r="B874" s="21"/>
+      <c r="B874" s="29"/>
     </row>
     <row r="875">
-      <c r="B875" s="21"/>
+      <c r="B875" s="29"/>
     </row>
     <row r="876">
-      <c r="B876" s="21"/>
+      <c r="B876" s="29"/>
     </row>
     <row r="877">
-      <c r="B877" s="21"/>
+      <c r="B877" s="29"/>
     </row>
     <row r="878">
-      <c r="B878" s="21"/>
+      <c r="B878" s="29"/>
     </row>
     <row r="879">
-      <c r="B879" s="21"/>
+      <c r="B879" s="29"/>
     </row>
     <row r="880">
-      <c r="B880" s="21"/>
+      <c r="B880" s="29"/>
     </row>
     <row r="881">
-      <c r="B881" s="21"/>
+      <c r="B881" s="29"/>
     </row>
     <row r="882">
-      <c r="B882" s="21"/>
+      <c r="B882" s="29"/>
     </row>
     <row r="883">
-      <c r="B883" s="21"/>
+      <c r="B883" s="29"/>
     </row>
     <row r="884">
-      <c r="B884" s="21"/>
+      <c r="B884" s="29"/>
     </row>
     <row r="885">
-      <c r="B885" s="21"/>
+      <c r="B885" s="29"/>
     </row>
     <row r="886">
-      <c r="B886" s="21"/>
+      <c r="B886" s="29"/>
     </row>
     <row r="887">
-      <c r="B887" s="21"/>
+      <c r="B887" s="29"/>
     </row>
     <row r="888">
-      <c r="B888" s="21"/>
+      <c r="B888" s="29"/>
     </row>
     <row r="889">
-      <c r="B889" s="21"/>
+      <c r="B889" s="29"/>
     </row>
     <row r="890">
-      <c r="B890" s="21"/>
+      <c r="B890" s="29"/>
     </row>
     <row r="891">
-      <c r="B891" s="21"/>
+      <c r="B891" s="29"/>
     </row>
     <row r="892">
-      <c r="B892" s="21"/>
+      <c r="B892" s="29"/>
     </row>
     <row r="893">
-      <c r="B893" s="21"/>
+      <c r="B893" s="29"/>
     </row>
     <row r="894">
-      <c r="B894" s="21"/>
+      <c r="B894" s="29"/>
     </row>
     <row r="895">
-      <c r="B895" s="21"/>
+      <c r="B895" s="29"/>
     </row>
     <row r="896">
-      <c r="B896" s="21"/>
+      <c r="B896" s="29"/>
     </row>
     <row r="897">
-      <c r="B897" s="21"/>
+      <c r="B897" s="29"/>
     </row>
     <row r="898">
-      <c r="B898" s="21"/>
+      <c r="B898" s="29"/>
     </row>
     <row r="899">
-      <c r="B899" s="21"/>
+      <c r="B899" s="29"/>
     </row>
     <row r="900">
-      <c r="B900" s="21"/>
+      <c r="B900" s="29"/>
     </row>
     <row r="901">
-      <c r="B901" s="21"/>
+      <c r="B901" s="29"/>
     </row>
     <row r="902">
-      <c r="B902" s="21"/>
+      <c r="B902" s="29"/>
     </row>
     <row r="903">
-      <c r="B903" s="21"/>
+      <c r="B903" s="29"/>
     </row>
     <row r="904">
-      <c r="B904" s="21"/>
+      <c r="B904" s="29"/>
     </row>
     <row r="905">
-      <c r="B905" s="21"/>
+      <c r="B905" s="29"/>
     </row>
     <row r="906">
-      <c r="B906" s="21"/>
+      <c r="B906" s="29"/>
     </row>
     <row r="907">
-      <c r="B907" s="21"/>
+      <c r="B907" s="29"/>
     </row>
     <row r="908">
-      <c r="B908" s="21"/>
+      <c r="B908" s="29"/>
     </row>
     <row r="909">
-      <c r="B909" s="21"/>
+      <c r="B909" s="29"/>
     </row>
     <row r="910">
-      <c r="B910" s="21"/>
+      <c r="B910" s="29"/>
     </row>
     <row r="911">
-      <c r="B911" s="21"/>
+      <c r="B911" s="29"/>
     </row>
     <row r="912">
-      <c r="B912" s="21"/>
+      <c r="B912" s="29"/>
     </row>
     <row r="913">
-      <c r="B913" s="21"/>
+      <c r="B913" s="29"/>
     </row>
     <row r="914">
-      <c r="B914" s="21"/>
+      <c r="B914" s="29"/>
     </row>
     <row r="915">
-      <c r="B915" s="21"/>
+      <c r="B915" s="29"/>
     </row>
     <row r="916">
-      <c r="B916" s="21"/>
+      <c r="B916" s="29"/>
     </row>
     <row r="917">
-      <c r="B917" s="21"/>
+      <c r="B917" s="29"/>
     </row>
     <row r="918">
-      <c r="B918" s="21"/>
+      <c r="B918" s="29"/>
     </row>
     <row r="919">
-      <c r="B919" s="21"/>
+      <c r="B919" s="29"/>
     </row>
     <row r="920">
-      <c r="B920" s="21"/>
+      <c r="B920" s="29"/>
     </row>
     <row r="921">
-      <c r="B921" s="21"/>
+      <c r="B921" s="29"/>
     </row>
     <row r="922">
-      <c r="B922" s="21"/>
+      <c r="B922" s="29"/>
     </row>
     <row r="923">
-      <c r="B923" s="21"/>
+      <c r="B923" s="29"/>
     </row>
     <row r="924">
-      <c r="B924" s="21"/>
+      <c r="B924" s="29"/>
     </row>
     <row r="925">
-      <c r="B925" s="21"/>
+      <c r="B925" s="29"/>
     </row>
     <row r="926">
-      <c r="B926" s="21"/>
+      <c r="B926" s="29"/>
     </row>
     <row r="927">
-      <c r="B927" s="21"/>
+      <c r="B927" s="29"/>
     </row>
     <row r="928">
-      <c r="B928" s="21"/>
+      <c r="B928" s="29"/>
     </row>
     <row r="929">
-      <c r="B929" s="21"/>
+      <c r="B929" s="29"/>
     </row>
     <row r="930">
-      <c r="B930" s="21"/>
+      <c r="B930" s="29"/>
     </row>
     <row r="931">
-      <c r="B931" s="21"/>
+      <c r="B931" s="29"/>
     </row>
     <row r="932">
-      <c r="B932" s="21"/>
+      <c r="B932" s="29"/>
     </row>
     <row r="933">
-      <c r="B933" s="21"/>
+      <c r="B933" s="29"/>
     </row>
     <row r="934">
-      <c r="B934" s="21"/>
+      <c r="B934" s="29"/>
     </row>
     <row r="935">
-      <c r="B935" s="21"/>
+      <c r="B935" s="29"/>
     </row>
     <row r="936">
-      <c r="B936" s="21"/>
+      <c r="B936" s="29"/>
     </row>
     <row r="937">
-      <c r="B937" s="21"/>
+      <c r="B937" s="29"/>
     </row>
     <row r="938">
-      <c r="B938" s="21"/>
+      <c r="B938" s="29"/>
     </row>
     <row r="939">
-      <c r="B939" s="21"/>
+      <c r="B939" s="29"/>
     </row>
     <row r="940">
-      <c r="B940" s="21"/>
+      <c r="B940" s="29"/>
     </row>
     <row r="941">
-      <c r="B941" s="21"/>
+      <c r="B941" s="29"/>
     </row>
     <row r="942">
-      <c r="B942" s="21"/>
+      <c r="B942" s="29"/>
     </row>
     <row r="943">
-      <c r="B943" s="21"/>
+      <c r="B943" s="29"/>
     </row>
     <row r="944">
-      <c r="B944" s="21"/>
+      <c r="B944" s="29"/>
     </row>
     <row r="945">
-      <c r="B945" s="21"/>
+      <c r="B945" s="29"/>
     </row>
     <row r="946">
-      <c r="B946" s="21"/>
+      <c r="B946" s="29"/>
     </row>
     <row r="947">
-      <c r="B947" s="21"/>
+      <c r="B947" s="29"/>
     </row>
     <row r="948">
-      <c r="B948" s="21"/>
+      <c r="B948" s="29"/>
     </row>
     <row r="949">
-      <c r="B949" s="21"/>
+      <c r="B949" s="29"/>
     </row>
     <row r="950">
-      <c r="B950" s="21"/>
+      <c r="B950" s="29"/>
     </row>
     <row r="951">
-      <c r="B951" s="21"/>
+      <c r="B951" s="29"/>
     </row>
     <row r="952">
-      <c r="B952" s="21"/>
+      <c r="B952" s="29"/>
     </row>
     <row r="953">
-      <c r="B953" s="21"/>
+      <c r="B953" s="29"/>
     </row>
     <row r="954">
-      <c r="B954" s="21"/>
+      <c r="B954" s="29"/>
     </row>
     <row r="955">
-      <c r="B955" s="21"/>
+      <c r="B955" s="29"/>
     </row>
     <row r="956">
-      <c r="B956" s="21"/>
+      <c r="B956" s="29"/>
     </row>
     <row r="957">
-      <c r="B957" s="21"/>
+      <c r="B957" s="29"/>
     </row>
     <row r="958">
-      <c r="B958" s="21"/>
+      <c r="B958" s="29"/>
     </row>
     <row r="959">
-      <c r="B959" s="21"/>
+      <c r="B959" s="29"/>
     </row>
     <row r="960">
-      <c r="B960" s="21"/>
+      <c r="B960" s="29"/>
     </row>
     <row r="961">
-      <c r="B961" s="21"/>
+      <c r="B961" s="29"/>
     </row>
     <row r="962">
-      <c r="B962" s="21"/>
+      <c r="B962" s="29"/>
     </row>
     <row r="963">
-      <c r="B963" s="21"/>
+      <c r="B963" s="29"/>
     </row>
     <row r="964">
-      <c r="B964" s="21"/>
+      <c r="B964" s="29"/>
     </row>
     <row r="965">
-      <c r="B965" s="21"/>
+      <c r="B965" s="29"/>
     </row>
     <row r="966">
-      <c r="B966" s="21"/>
+      <c r="B966" s="29"/>
     </row>
     <row r="967">
-      <c r="B967" s="21"/>
+      <c r="B967" s="29"/>
     </row>
     <row r="968">
-      <c r="B968" s="21"/>
+      <c r="B968" s="29"/>
     </row>
     <row r="969">
-      <c r="B969" s="21"/>
+      <c r="B969" s="29"/>
     </row>
     <row r="970">
-      <c r="B970" s="21"/>
+      <c r="B970" s="29"/>
     </row>
     <row r="971">
-      <c r="B971" s="21"/>
+      <c r="B971" s="29"/>
     </row>
     <row r="972">
-      <c r="B972" s="21"/>
+      <c r="B972" s="29"/>
     </row>
     <row r="973">
-      <c r="B973" s="21"/>
+      <c r="B973" s="29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Z25">
@@ -4468,8 +4537,9 @@
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>